--- a/VersionRecords/Version 5.1.2 20161129/版本Bug和特性计划及评审表v5.1.2_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.2 20161129/版本Bug和特性计划及评审表v5.1.2_EQ组.xlsx
@@ -1,13 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.2 20161129\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="版本C_UI4.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="5.1.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="BS权限配置" sheetId="3" r:id="rId2"/>
     <sheet name="数据修复" sheetId="2" r:id="rId3"/>
     <sheet name="(预发布)需要修改的配置文件" sheetId="6" r:id="rId4"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="79">
   <si>
     <t>No</t>
   </si>
@@ -204,65 +209,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>周蓉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>新特性</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>租客PC&amp;租客APP</t>
-  </si>
-  <si>
-    <t>朱彤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>修复品牌上下线后无法搜索到相关普通品牌</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>【扫码项目】发送短信限制条数增加白名单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网/APP"区域筛选"区域名称去除"区"字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市区域字段顺序更改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐房源排序</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【扫码项目】登录增加手机17号段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.out.prin优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常日志处理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Fix  Bug</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>扫码项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>周云</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -271,23 +229,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>【慢SQL优化一期】- 【SLOW-20160824009】 【SLOW-20160824010】 【SLOW-20160824011】</t>
-  </si>
-  <si>
-    <t>【慢SQL优化一期】- 【SLOW-20160824015】</t>
-  </si>
-  <si>
-    <t>周云</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【慢SQL优化一期】- 【SLOW-20160824014】</t>
-  </si>
-  <si>
-    <t>EQ组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>裔玲玲</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -296,24 +237,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>周蓉/吴永余</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴永余</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>周云</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>史欣欣</t>
     <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复新增优选品牌，优选品牌主页房源显示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
@@ -366,19 +295,47 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>C_UI4.0</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>生产环境</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI改版4.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源排序积分计算公式变更</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC&amp;租客APP&amp;BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网底部“公众平台”内容更换</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC&amp;租客APP&amp;BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1147,17 +1104,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="42.125" style="15" customWidth="1"/>
@@ -1182,7 +1139,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1241,15 +1198,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="26.25" customHeight="1">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>49</v>
@@ -1268,13 +1225,13 @@
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="12" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>46</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>50</v>
@@ -1291,568 +1248,320 @@
       <c r="S2" s="13"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="26.25" customHeight="1">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F3" s="11">
-        <v>42663</v>
+        <v>42702</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="H3" s="11">
-        <v>42663</v>
+        <v>42702</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="12" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="11">
-        <v>42667</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
       <c r="P3" s="35"/>
       <c r="Q3" s="35"/>
       <c r="R3" s="35"/>
       <c r="S3" s="13"/>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="1:20" ht="16.5">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="11">
-        <v>42663</v>
+        <v>42702</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="11">
-        <v>42663</v>
+        <v>42702</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="11">
-        <v>42667</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="16.5">
+    <row r="5" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="11">
-        <v>42663</v>
+        <v>42702</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="11">
-        <v>42663</v>
+        <v>42702</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="11">
-        <v>42667</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="16.5">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="11">
-        <v>42663</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="11">
-        <v>42663</v>
-      </c>
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="11">
-        <v>42667</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="33">
-      <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="11">
-        <v>42663</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="11">
-        <v>42663</v>
-      </c>
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="11">
-        <v>42667</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5">
-      <c r="A8" s="16">
-        <v>7</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="11">
-        <v>42663</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="11">
-        <v>42663</v>
-      </c>
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="11">
-        <v>42667</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="16.5">
-      <c r="A9" s="16">
-        <v>8</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="11">
-        <v>42663</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="11">
-        <v>42663</v>
-      </c>
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="11">
-        <v>42667</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5">
-      <c r="A10" s="16">
-        <v>9</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="11">
-        <v>42663</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="11">
-        <v>42663</v>
-      </c>
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" s="11">
-        <v>42667</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="4"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="16.5">
-      <c r="A11" s="16">
-        <v>10</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="11">
-        <v>42663</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="11">
-        <v>42663</v>
-      </c>
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" s="11">
-        <v>42667</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="4"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:20" ht="16.5">
-      <c r="A12" s="16">
-        <v>11</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="11">
-        <v>42663</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="11">
-        <v>42663</v>
-      </c>
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="11">
-        <v>42667</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="4"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="16.5">
-      <c r="A13" s="16">
-        <v>12</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="11">
-        <v>42663</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="11">
-        <v>42663</v>
-      </c>
+    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="11">
-        <v>42667</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="4"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="16.5">
+    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="11"/>
       <c r="I14" s="6"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="12"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="4"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:20" ht="16.5">
+    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
@@ -1873,7 +1582,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:20" ht="16.5">
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
@@ -1894,7 +1603,7 @@
       <c r="R16" s="7"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" ht="16.5">
+    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
@@ -1915,7 +1624,7 @@
       <c r="R17" s="7"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5">
+    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
@@ -1936,7 +1645,7 @@
       <c r="R18" s="7"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" ht="16.5">
+    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
@@ -1957,7 +1666,7 @@
       <c r="R19" s="7"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="16.5">
+    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="4"/>
       <c r="C20" s="7"/>
@@ -1978,7 +1687,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5">
+    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="4"/>
       <c r="C21" s="7"/>
@@ -1999,7 +1708,7 @@
       <c r="R21" s="7"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" ht="16.5">
+    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
@@ -2020,7 +1729,7 @@
       <c r="R22" s="7"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" ht="16.5">
+    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
@@ -2041,7 +1750,7 @@
       <c r="R23" s="7"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" ht="16.5">
+    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
@@ -2062,7 +1771,7 @@
       <c r="R24" s="7"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" ht="16.5">
+    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
@@ -2083,7 +1792,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:19" ht="16.5">
+    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
@@ -2091,7 +1800,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="5"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="11"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="6"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
@@ -2104,7 +1813,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="1:19" ht="16.5">
+    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="4"/>
       <c r="C27" s="7"/>
@@ -2112,7 +1821,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="5"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="11"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="6"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
@@ -2125,7 +1834,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" ht="16.5">
+    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="4"/>
       <c r="C28" s="7"/>
@@ -2133,7 +1842,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="5"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="11"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="6"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -2146,7 +1855,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" ht="16.5">
+    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
@@ -2154,7 +1863,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="5"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="11"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="6"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -2167,7 +1876,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" ht="16.5">
+    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="4"/>
       <c r="C30" s="7"/>
@@ -2175,7 +1884,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="5"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="11"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="6"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -2188,7 +1897,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="16.5">
+    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="4"/>
       <c r="C31" s="7"/>
@@ -2196,7 +1905,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="5"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="11"/>
+      <c r="H31" s="5"/>
       <c r="I31" s="6"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
@@ -2209,7 +1918,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="16.5">
+    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="4"/>
       <c r="C32" s="7"/>
@@ -2217,7 +1926,7 @@
       <c r="E32" s="10"/>
       <c r="F32" s="5"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="11"/>
+      <c r="H32" s="5"/>
       <c r="I32" s="6"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
@@ -2230,7 +1939,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5">
+    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="4"/>
       <c r="C33" s="7"/>
@@ -2238,7 +1947,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="5"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="11"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="6"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
@@ -2251,7 +1960,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" ht="16.5">
+    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
@@ -2259,7 +1968,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="5"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="11"/>
+      <c r="H34" s="5"/>
       <c r="I34" s="6"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
@@ -2272,7 +1981,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5">
+    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -2293,7 +2002,7 @@
       <c r="R35" s="7"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5">
+    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
@@ -2314,7 +2023,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" ht="16.5">
+    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
@@ -2335,7 +2044,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5">
+    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
@@ -2356,7 +2065,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5">
+    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="4"/>
       <c r="C39" s="7"/>
@@ -2377,7 +2086,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5">
+    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -2398,7 +2107,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5">
+    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
@@ -2419,7 +2128,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="1:19" ht="16.5">
+    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
@@ -2440,7 +2149,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19" ht="16.5">
+    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
@@ -2461,7 +2170,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="1:19" ht="16.5">
+    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="4"/>
       <c r="C44" s="7"/>
@@ -2482,7 +2191,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19" ht="16.5">
+    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="4"/>
       <c r="C45" s="7"/>
@@ -2503,7 +2212,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5">
+    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="4"/>
       <c r="C46" s="7"/>
@@ -2524,7 +2233,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19" ht="16.5">
+    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="4"/>
       <c r="C47" s="7"/>
@@ -2545,7 +2254,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19" ht="16.5">
+    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="4"/>
       <c r="C48" s="7"/>
@@ -2566,7 +2275,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5">
+    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="4"/>
       <c r="C49" s="7"/>
@@ -2587,7 +2296,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5">
+    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="4"/>
       <c r="C50" s="7"/>
@@ -2608,7 +2317,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5">
+    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="4"/>
       <c r="C51" s="7"/>
@@ -2629,7 +2338,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5">
+    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -2650,7 +2359,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5">
+    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
@@ -2671,7 +2380,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5">
+    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
@@ -2692,7 +2401,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5">
+    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
@@ -2713,7 +2422,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5">
+    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
@@ -2734,7 +2443,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5">
+    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -2755,7 +2464,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5">
+    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
@@ -2776,7 +2485,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5">
+    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
@@ -2797,7 +2506,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5">
+    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
@@ -2818,7 +2527,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5">
+    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
@@ -2839,7 +2548,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5">
+    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -2860,7 +2569,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5">
+    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -2881,7 +2590,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5">
+    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -2902,7 +2611,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -2923,7 +2632,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -2944,7 +2653,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -2965,7 +2674,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -2986,7 +2695,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -3007,7 +2716,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -3028,7 +2737,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -3049,7 +2758,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -3070,7 +2779,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -3091,7 +2800,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -3112,7 +2821,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -3133,7 +2842,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -3154,7 +2863,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -3175,7 +2884,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -3196,7 +2905,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -3217,7 +2926,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5">
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -3238,7 +2947,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5">
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -3259,7 +2968,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5">
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -3280,7 +2989,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5">
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -3301,7 +3010,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5">
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -3322,7 +3031,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5">
+    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -3343,7 +3052,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5">
+    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -3364,7 +3073,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5">
+    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -3385,7 +3094,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5">
+    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -3406,7 +3115,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5">
+    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -3427,7 +3136,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5">
+    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -3448,7 +3157,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5">
+    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -3469,7 +3178,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5">
+    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -3490,7 +3199,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5">
+    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -3511,7 +3220,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5">
+    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -3532,7 +3241,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5">
+    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -3553,7 +3262,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5">
+    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -3574,7 +3283,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5">
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -3595,7 +3304,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5">
+    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -3616,7 +3325,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5">
+    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -3637,7 +3346,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" ht="16.5">
+    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -3658,7 +3367,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" ht="16.5">
+    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -3679,7 +3388,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" ht="16.5">
+    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -3700,7 +3409,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" ht="16.5">
+    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -3716,12 +3425,9 @@
       <c r="M103" s="7"/>
       <c r="N103" s="5"/>
       <c r="O103" s="4"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" ht="16.5">
+    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -3737,12 +3443,9 @@
       <c r="M104" s="7"/>
       <c r="N104" s="5"/>
       <c r="O104" s="4"/>
-      <c r="P104" s="7"/>
-      <c r="Q104" s="7"/>
-      <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" ht="16.5">
+    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -3758,12 +3461,9 @@
       <c r="M105" s="7"/>
       <c r="N105" s="5"/>
       <c r="O105" s="4"/>
-      <c r="P105" s="7"/>
-      <c r="Q105" s="7"/>
-      <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19" ht="16.5">
+    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -3779,12 +3479,9 @@
       <c r="M106" s="7"/>
       <c r="N106" s="5"/>
       <c r="O106" s="4"/>
-      <c r="P106" s="7"/>
-      <c r="Q106" s="7"/>
-      <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" ht="16.5">
+    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -3800,12 +3497,9 @@
       <c r="M107" s="7"/>
       <c r="N107" s="5"/>
       <c r="O107" s="4"/>
-      <c r="P107" s="7"/>
-      <c r="Q107" s="7"/>
-      <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" ht="16.5">
+    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -3821,12 +3515,9 @@
       <c r="M108" s="7"/>
       <c r="N108" s="5"/>
       <c r="O108" s="4"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" ht="16.5">
+    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -3842,12 +3533,9 @@
       <c r="M109" s="7"/>
       <c r="N109" s="5"/>
       <c r="O109" s="4"/>
-      <c r="P109" s="7"/>
-      <c r="Q109" s="7"/>
-      <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" ht="16.5">
+    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -3863,12 +3551,9 @@
       <c r="M110" s="7"/>
       <c r="N110" s="5"/>
       <c r="O110" s="4"/>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="7"/>
-      <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" ht="16.5">
+    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -3884,12 +3569,9 @@
       <c r="M111" s="7"/>
       <c r="N111" s="5"/>
       <c r="O111" s="4"/>
-      <c r="P111" s="7"/>
-      <c r="Q111" s="7"/>
-      <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" ht="16.5">
+    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -3907,7 +3589,7 @@
       <c r="O112" s="4"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19" ht="16.5">
+    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -3925,7 +3607,7 @@
       <c r="O113" s="4"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" ht="16.5">
+    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -3943,7 +3625,7 @@
       <c r="O114" s="4"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19" ht="16.5">
+    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -3961,7 +3643,7 @@
       <c r="O115" s="4"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19" ht="16.5">
+    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -3979,7 +3661,7 @@
       <c r="O116" s="4"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19" ht="16.5">
+    <row r="117" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -3997,7 +3679,7 @@
       <c r="O117" s="4"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19" ht="16.5">
+    <row r="118" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -4015,7 +3697,7 @@
       <c r="O118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" ht="16.5">
+    <row r="119" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -4033,7 +3715,7 @@
       <c r="O119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19" ht="16.5">
+    <row r="120" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -4051,7 +3733,7 @@
       <c r="O120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19" ht="16.5">
+    <row r="121" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -4069,7 +3751,7 @@
       <c r="O121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" ht="16.5">
+    <row r="122" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -4087,7 +3769,7 @@
       <c r="O122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19" ht="16.5">
+    <row r="123" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -4105,7 +3787,7 @@
       <c r="O123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19" ht="16.5">
+    <row r="124" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -4123,7 +3805,7 @@
       <c r="O124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19" ht="16.5">
+    <row r="125" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -4141,7 +3823,7 @@
       <c r="O125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19" ht="16.5">
+    <row r="126" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -4159,7 +3841,7 @@
       <c r="O126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19" ht="16.5">
+    <row r="127" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -4177,7 +3859,7 @@
       <c r="O127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19" ht="16.5">
+    <row r="128" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -4195,7 +3877,7 @@
       <c r="O128" s="4"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19" ht="16.5">
+    <row r="129" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -4213,7 +3895,7 @@
       <c r="O129" s="4"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19" ht="16.5">
+    <row r="130" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -4231,7 +3913,7 @@
       <c r="O130" s="4"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19" ht="16.5">
+    <row r="131" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -4249,11 +3931,11 @@
       <c r="O131" s="4"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19" ht="16.5">
+    <row r="132" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
-      <c r="D132" s="10"/>
+      <c r="D132" s="7"/>
       <c r="E132" s="10"/>
       <c r="F132" s="5"/>
       <c r="G132" s="7"/>
@@ -4267,11 +3949,11 @@
       <c r="O132" s="4"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19" ht="16.5">
+    <row r="133" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
-      <c r="D133" s="10"/>
+      <c r="D133" s="7"/>
       <c r="E133" s="10"/>
       <c r="F133" s="5"/>
       <c r="G133" s="7"/>
@@ -4285,239 +3967,77 @@
       <c r="O133" s="4"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19" ht="16.5">
+    <row r="134" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
-      <c r="D134" s="10"/>
+      <c r="D134" s="7"/>
       <c r="E134" s="10"/>
       <c r="F134" s="5"/>
       <c r="G134" s="7"/>
       <c r="H134" s="5"/>
       <c r="I134" s="6"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="12"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="7"/>
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
       <c r="N134" s="5"/>
       <c r="O134" s="4"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19" ht="16.5">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
       <c r="F135" s="5"/>
       <c r="G135" s="7"/>
       <c r="H135" s="5"/>
       <c r="I135" s="6"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="12"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
       <c r="N135" s="5"/>
       <c r="O135" s="4"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19" ht="16.5">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
       <c r="F136" s="5"/>
       <c r="G136" s="7"/>
       <c r="H136" s="5"/>
       <c r="I136" s="6"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="12"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="7"/>
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
       <c r="N136" s="5"/>
       <c r="O136" s="4"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19" ht="16.5">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
       <c r="F137" s="5"/>
       <c r="G137" s="7"/>
       <c r="H137" s="5"/>
       <c r="I137" s="6"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="12"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="7"/>
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
       <c r="N137" s="5"/>
       <c r="O137" s="4"/>
       <c r="S137" s="4"/>
-    </row>
-    <row r="138" spans="1:19" ht="16.5">
-      <c r="A138" s="7"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="12"/>
-      <c r="L138" s="7"/>
-      <c r="M138" s="7"/>
-      <c r="N138" s="5"/>
-      <c r="O138" s="4"/>
-      <c r="S138" s="4"/>
-    </row>
-    <row r="139" spans="1:19" ht="16.5">
-      <c r="A139" s="7"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="12"/>
-      <c r="L139" s="7"/>
-      <c r="M139" s="7"/>
-      <c r="N139" s="5"/>
-      <c r="O139" s="4"/>
-      <c r="S139" s="4"/>
-    </row>
-    <row r="140" spans="1:19" ht="16.5">
-      <c r="A140" s="7"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="12"/>
-      <c r="L140" s="7"/>
-      <c r="M140" s="7"/>
-      <c r="N140" s="5"/>
-      <c r="O140" s="4"/>
-      <c r="S140" s="4"/>
-    </row>
-    <row r="141" spans="1:19" ht="16.5">
-      <c r="A141" s="7"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="12"/>
-      <c r="L141" s="7"/>
-      <c r="M141" s="7"/>
-      <c r="N141" s="5"/>
-      <c r="O141" s="4"/>
-      <c r="S141" s="4"/>
-    </row>
-    <row r="142" spans="1:19" ht="16.5">
-      <c r="A142" s="7"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="6"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="12"/>
-      <c r="L142" s="7"/>
-      <c r="M142" s="7"/>
-      <c r="N142" s="5"/>
-      <c r="O142" s="4"/>
-      <c r="S142" s="4"/>
-    </row>
-    <row r="143" spans="1:19" ht="16.5">
-      <c r="A143" s="7"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="7"/>
-      <c r="K143" s="7"/>
-      <c r="L143" s="7"/>
-      <c r="M143" s="7"/>
-      <c r="N143" s="5"/>
-      <c r="O143" s="4"/>
-      <c r="S143" s="4"/>
-    </row>
-    <row r="144" spans="1:19">
-      <c r="A144" s="7"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="6"/>
-      <c r="J144" s="7"/>
-      <c r="K144" s="7"/>
-      <c r="L144" s="7"/>
-      <c r="M144" s="7"/>
-      <c r="N144" s="5"/>
-      <c r="O144" s="4"/>
-      <c r="S144" s="4"/>
-    </row>
-    <row r="145" spans="1:19">
-      <c r="A145" s="7"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="7"/>
-      <c r="K145" s="7"/>
-      <c r="L145" s="7"/>
-      <c r="M145" s="7"/>
-      <c r="N145" s="5"/>
-      <c r="O145" s="4"/>
-      <c r="S145" s="4"/>
-    </row>
-    <row r="146" spans="1:19">
-      <c r="A146" s="7"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="6"/>
-      <c r="J146" s="7"/>
-      <c r="K146" s="7"/>
-      <c r="L146" s="7"/>
-      <c r="M146" s="7"/>
-      <c r="N146" s="5"/>
-      <c r="O146" s="4"/>
-      <c r="S146" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4527,21 +4047,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
         <v>27</v>
       </c>
@@ -4554,7 +4074,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="45"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="46"/>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -4565,7 +4085,7 @@
       <c r="H2" s="46"/>
       <c r="I2" s="47"/>
     </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -4594,7 +4114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -4605,7 +4125,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4616,7 +4136,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4627,7 +4147,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4638,7 +4158,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4649,7 +4169,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4660,7 +4180,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4671,7 +4191,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4682,7 +4202,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4693,7 +4213,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4704,7 +4224,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4733,14 +4253,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4751,7 +4271,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -4777,7 +4297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -4787,7 +4307,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4797,7 +4317,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4807,7 +4327,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4817,7 +4337,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4827,7 +4347,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4837,7 +4357,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4847,7 +4367,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4857,7 +4377,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4867,7 +4387,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4877,7 +4397,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4887,7 +4407,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4897,7 +4417,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4907,7 +4427,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -4917,7 +4437,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -4927,7 +4447,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -4937,7 +4457,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -4947,7 +4467,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -4969,14 +4489,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="31" customWidth="1"/>
@@ -5812,7 +5332,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
         <v>36</v>
       </c>
@@ -5829,7 +5349,7 @@
       <c r="L1" s="44"/>
       <c r="M1" s="45"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="46"/>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -5844,7 +5364,7 @@
       <c r="L2" s="46"/>
       <c r="M2" s="47"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -5885,46 +5405,46 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="43" customFormat="1" ht="49.5">
+    <row r="4" spans="1:13" s="43" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A4" s="40">
         <v>1</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -5939,7 +5459,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -5954,7 +5474,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -5969,7 +5489,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -6003,14 +5523,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="31" customWidth="1"/>
@@ -6846,7 +6366,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
         <v>36</v>
       </c>
@@ -6863,7 +6383,7 @@
       <c r="L1" s="44"/>
       <c r="M1" s="45"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="46"/>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -6878,7 +6398,7 @@
       <c r="L2" s="46"/>
       <c r="M2" s="47"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -6919,46 +6439,46 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="43" customFormat="1" ht="49.5">
+    <row r="4" spans="1:13" s="43" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A4" s="40">
         <v>1</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -6973,7 +6493,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -6988,7 +6508,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -7021,14 +6541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="31" customWidth="1"/>
@@ -7864,7 +7384,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
         <v>36</v>
       </c>
@@ -7881,7 +7401,7 @@
       <c r="L1" s="44"/>
       <c r="M1" s="45"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="46"/>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -7896,7 +7416,7 @@
       <c r="L2" s="46"/>
       <c r="M2" s="47"/>
     </row>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -7937,46 +7457,44 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="43" customFormat="1" ht="49.5">
+    <row r="4" spans="1:13" s="43" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A4" s="40">
         <v>1</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>90</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C4" s="40"/>
       <c r="D4" s="41" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="5" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -7991,7 +7509,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -8006,7 +7524,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="7" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -8021,7 +7539,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5">
+    <row r="8" spans="1:13" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>

--- a/VersionRecords/Version 5.1.2 20161129/版本Bug和特性计划及评审表v5.1.2_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.2 20161129/版本Bug和特性计划及评审表v5.1.2_EQ组.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepertory\Mogo_Doc\VersionRecords\Version 5.1.2 20161129\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="5.1.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'(预发布)需要修改的配置文件'!$A$1:$M$3</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -86,15 +81,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>修复品牌上下线后无法搜索到相关普通品牌</t>
-  </si>
-  <si>
-    <t>Fix  Bug</t>
-  </si>
-  <si>
-    <t>租客PC&amp;租客APP</t>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
@@ -102,12 +88,6 @@
   </si>
   <si>
     <t>EQ组</t>
-  </si>
-  <si>
-    <t>吴永余</t>
-  </si>
-  <si>
-    <t>通过</t>
   </si>
   <si>
     <t>能</t>
@@ -337,12 +317,38 @@
     <t>位置：sysconfig.ELASTIC_SEARCHROOM_ROOM_TYPE=room下一行</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要程度</t>
+  </si>
+  <si>
+    <t>紧急程度</t>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -441,6 +447,26 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -596,7 +622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,6 +764,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,17 +788,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1114,2940 +1149,3331 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="30" customWidth="1"/>
-    <col min="2" max="2" width="42.125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15" style="30" customWidth="1"/>
-    <col min="4" max="4" width="25" style="30" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="30" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="31" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="31" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="30" customWidth="1"/>
-    <col min="11" max="11" width="11.875" style="30" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="30" customWidth="1"/>
-    <col min="13" max="13" width="12.125" style="31" customWidth="1"/>
-    <col min="14" max="14" width="14.375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="5.25" style="31" customWidth="1"/>
-    <col min="16" max="16" width="12" style="32" customWidth="1"/>
-    <col min="17" max="17" width="17" style="32" customWidth="1"/>
-    <col min="18" max="18" width="14.125" style="32" customWidth="1"/>
-    <col min="19" max="19" width="5.75" style="31" customWidth="1"/>
-    <col min="20" max="20" width="8.875" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="17"/>
+    <col min="2" max="3" width="9.875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="42.125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="15" style="30" customWidth="1"/>
+    <col min="6" max="6" width="25" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="30" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="31" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="31" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="31" customWidth="1"/>
+    <col min="12" max="12" width="20.125" style="30" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="30" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="30" customWidth="1"/>
+    <col min="15" max="15" width="12.125" style="31" customWidth="1"/>
+    <col min="16" max="16" width="14.375" style="31" customWidth="1"/>
+    <col min="17" max="17" width="5.25" style="31" customWidth="1"/>
+    <col min="18" max="18" width="12" style="32" customWidth="1"/>
+    <col min="19" max="19" width="17" style="32" customWidth="1"/>
+    <col min="20" max="20" width="14.125" style="32" customWidth="1"/>
+    <col min="21" max="21" width="5.75" style="31" customWidth="1"/>
+    <col min="22" max="22" width="8.875" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="28" customFormat="1" ht="27">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="O1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="P1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="R1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="S1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="T1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="U1" s="33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="29" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="29" customFormat="1" ht="26.25" customHeight="1">
       <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="H2" s="37">
+        <v>42702</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="37">
+        <v>42702</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="37">
-        <v>42663</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="37">
-        <v>42663</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="42" t="s">
+      <c r="M2" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="36"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="46"/>
+    </row>
+    <row r="3" spans="1:22" ht="16.5">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="F3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="37">
-        <v>42667</v>
-      </c>
-      <c r="O2" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="46"/>
-    </row>
-    <row r="3" spans="1:20" s="29" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34">
-        <v>1</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="37">
-        <v>42702</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>22</v>
+      <c r="G3" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="H3" s="37">
         <v>42702</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="42" t="s">
+      <c r="I3" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="37">
+        <v>42702</v>
+      </c>
+      <c r="K3" s="44"/>
+      <c r="L3" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="37">
+        <v>42667</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="40"/>
+    </row>
+    <row r="4" spans="1:22" ht="20.25" customHeight="1">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="46"/>
-    </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="34">
-        <v>2</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="F4" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="37">
-        <v>42702</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>22</v>
+      <c r="G4" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="H4" s="37">
         <v>42702</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
+      <c r="I4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="37">
+        <v>42702</v>
+      </c>
+      <c r="K4" s="44"/>
+      <c r="L4" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="37">
+        <v>42667</v>
+      </c>
+      <c r="Q4" s="42" t="s">
+        <v>22</v>
+      </c>
       <c r="R4" s="39"/>
-      <c r="S4" s="40"/>
-    </row>
-    <row r="5" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34">
-        <v>3</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="37">
-        <v>42702</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="37">
-        <v>42702</v>
-      </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="40"/>
+    </row>
+    <row r="5" spans="1:22" ht="16.5">
+      <c r="A5" s="39"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="42"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="40"/>
       <c r="R5" s="39"/>
-      <c r="S5" s="40"/>
-    </row>
-    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="40"/>
+    </row>
+    <row r="6" spans="1:22" ht="16.5">
       <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="40"/>
       <c r="R6" s="39"/>
-      <c r="S6" s="40"/>
-    </row>
-    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="40"/>
+    </row>
+    <row r="7" spans="1:22" ht="16.5">
       <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="40"/>
       <c r="R7" s="39"/>
-      <c r="S7" s="40"/>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="40"/>
+    </row>
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="40"/>
       <c r="R8" s="39"/>
-      <c r="S8" s="40"/>
-    </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="40"/>
+    </row>
+    <row r="9" spans="1:22" ht="16.5">
       <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="40"/>
       <c r="R9" s="39"/>
-      <c r="S9" s="40"/>
-    </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="40"/>
+    </row>
+    <row r="10" spans="1:22" ht="16.5">
       <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="40"/>
       <c r="R10" s="39"/>
-      <c r="S10" s="40"/>
-    </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="40"/>
+    </row>
+    <row r="11" spans="1:22" ht="16.5">
       <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="40"/>
       <c r="R11" s="39"/>
-      <c r="S11" s="40"/>
-    </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="40"/>
+    </row>
+    <row r="12" spans="1:22" ht="16.5">
       <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="40"/>
       <c r="R12" s="39"/>
-      <c r="S12" s="40"/>
-    </row>
-    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="40"/>
+    </row>
+    <row r="13" spans="1:22" ht="16.5">
       <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="40"/>
       <c r="R13" s="39"/>
-      <c r="S13" s="40"/>
-    </row>
-    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="40"/>
+    </row>
+    <row r="14" spans="1:22" ht="16.5">
       <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="40"/>
       <c r="R14" s="39"/>
-      <c r="S14" s="40"/>
-    </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="40"/>
+    </row>
+    <row r="15" spans="1:22" ht="16.5">
       <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="39"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="40"/>
       <c r="R15" s="39"/>
-      <c r="S15" s="40"/>
-    </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="40"/>
+    </row>
+    <row r="16" spans="1:22" ht="16.5">
       <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="39"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="40"/>
       <c r="R16" s="39"/>
-      <c r="S16" s="40"/>
-    </row>
-    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="40"/>
+    </row>
+    <row r="17" spans="1:21" ht="16.5">
       <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="39"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="40"/>
       <c r="R17" s="39"/>
-      <c r="S17" s="40"/>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="40"/>
+    </row>
+    <row r="18" spans="1:21" ht="16.5">
       <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="39"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="40"/>
       <c r="R18" s="39"/>
-      <c r="S18" s="40"/>
-    </row>
-    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="40"/>
+    </row>
+    <row r="19" spans="1:21" ht="16.5">
       <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="39"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="40"/>
       <c r="R19" s="39"/>
-      <c r="S19" s="40"/>
-    </row>
-    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="40"/>
+    </row>
+    <row r="20" spans="1:21" ht="16.5">
       <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="39"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="40"/>
       <c r="R20" s="39"/>
-      <c r="S20" s="40"/>
-    </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="40"/>
+    </row>
+    <row r="21" spans="1:21" ht="16.5">
       <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="39"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="40"/>
       <c r="R21" s="39"/>
-      <c r="S21" s="40"/>
-    </row>
-    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="40"/>
+    </row>
+    <row r="22" spans="1:21" ht="16.5">
       <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="39"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="40"/>
       <c r="R22" s="39"/>
-      <c r="S22" s="40"/>
-    </row>
-    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="40"/>
+    </row>
+    <row r="23" spans="1:21" ht="16.5">
       <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="39"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="40"/>
       <c r="R23" s="39"/>
-      <c r="S23" s="40"/>
-    </row>
-    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="40"/>
+    </row>
+    <row r="24" spans="1:21" ht="16.5">
       <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="39"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="40"/>
       <c r="R24" s="39"/>
-      <c r="S24" s="40"/>
-    </row>
-    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="40"/>
+    </row>
+    <row r="25" spans="1:21" ht="16.5">
       <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="39"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="40"/>
       <c r="R25" s="39"/>
-      <c r="S25" s="40"/>
-    </row>
-    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="40"/>
+    </row>
+    <row r="26" spans="1:21" ht="16.5">
       <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="39"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="41"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="40"/>
       <c r="R26" s="39"/>
-      <c r="S26" s="40"/>
-    </row>
-    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="40"/>
+    </row>
+    <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="39"/>
-      <c r="B27" s="40"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="39"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
       <c r="H27" s="41"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="40"/>
       <c r="R27" s="39"/>
-      <c r="S27" s="40"/>
-    </row>
-    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="40"/>
+    </row>
+    <row r="28" spans="1:21" ht="16.5">
       <c r="A28" s="39"/>
-      <c r="B28" s="40"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="39"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="41"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="40"/>
       <c r="R28" s="39"/>
-      <c r="S28" s="40"/>
-    </row>
-    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="40"/>
+    </row>
+    <row r="29" spans="1:21" ht="16.5">
       <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="39"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="41"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="40"/>
       <c r="R29" s="39"/>
-      <c r="S29" s="40"/>
-    </row>
-    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="40"/>
+    </row>
+    <row r="30" spans="1:21" ht="16.5">
       <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="39"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
       <c r="H30" s="41"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="40"/>
       <c r="R30" s="39"/>
-      <c r="S30" s="40"/>
-    </row>
-    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="40"/>
+    </row>
+    <row r="31" spans="1:21" ht="16.5">
       <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="39"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
       <c r="H31" s="41"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="40"/>
       <c r="R31" s="39"/>
-      <c r="S31" s="40"/>
-    </row>
-    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="40"/>
+    </row>
+    <row r="32" spans="1:21" ht="16.5">
       <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="39"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
       <c r="H32" s="41"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="40"/>
       <c r="R32" s="39"/>
-      <c r="S32" s="40"/>
-    </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="40"/>
+    </row>
+    <row r="33" spans="1:21" ht="16.5">
       <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="39"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="39"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
       <c r="H33" s="41"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="40"/>
       <c r="R33" s="39"/>
-      <c r="S33" s="40"/>
-    </row>
-    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="40"/>
+    </row>
+    <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="39"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
       <c r="H34" s="41"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="40"/>
       <c r="R34" s="39"/>
-      <c r="S34" s="40"/>
-    </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="40"/>
+    </row>
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="39"/>
-      <c r="B35" s="40"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="39"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="39"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="41"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="40"/>
       <c r="R35" s="39"/>
-      <c r="S35" s="40"/>
-    </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="40"/>
+    </row>
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="39"/>
-      <c r="B36" s="40"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="39"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="39"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
       <c r="H36" s="41"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="40"/>
       <c r="R36" s="39"/>
-      <c r="S36" s="40"/>
-    </row>
-    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="40"/>
+    </row>
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="39"/>
-      <c r="B37" s="40"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="39"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="39"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
       <c r="H37" s="41"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="40"/>
       <c r="R37" s="39"/>
-      <c r="S37" s="40"/>
-    </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="40"/>
+    </row>
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="39"/>
-      <c r="B38" s="40"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="39"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="39"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="41"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="40"/>
       <c r="R38" s="39"/>
-      <c r="S38" s="40"/>
-    </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="40"/>
+    </row>
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="39"/>
-      <c r="B39" s="40"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="39"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="39"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
       <c r="H39" s="41"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="40"/>
       <c r="R39" s="39"/>
-      <c r="S39" s="40"/>
-    </row>
-    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="40"/>
+    </row>
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="39"/>
-      <c r="B40" s="40"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="39"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="39"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
       <c r="H40" s="41"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="40"/>
       <c r="R40" s="39"/>
-      <c r="S40" s="40"/>
-    </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="40"/>
+    </row>
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="39"/>
-      <c r="B41" s="40"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="39"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="39"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
       <c r="H41" s="41"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="40"/>
       <c r="R41" s="39"/>
-      <c r="S41" s="40"/>
-    </row>
-    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="40"/>
+    </row>
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="39"/>
-      <c r="B42" s="40"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="39"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="39"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
       <c r="H42" s="41"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="40"/>
       <c r="R42" s="39"/>
-      <c r="S42" s="40"/>
-    </row>
-    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="40"/>
+    </row>
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="39"/>
-      <c r="B43" s="40"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="39"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="39"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
       <c r="H43" s="41"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="40"/>
       <c r="R43" s="39"/>
-      <c r="S43" s="40"/>
-    </row>
-    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="40"/>
+    </row>
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="39"/>
-      <c r="B44" s="40"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="39"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="39"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
       <c r="H44" s="41"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="40"/>
       <c r="R44" s="39"/>
-      <c r="S44" s="40"/>
-    </row>
-    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="40"/>
+    </row>
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="39"/>
-      <c r="B45" s="40"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="39"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="39"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
       <c r="H45" s="41"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="40"/>
       <c r="R45" s="39"/>
-      <c r="S45" s="40"/>
-    </row>
-    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="40"/>
+    </row>
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="39"/>
-      <c r="B46" s="40"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="39"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="39"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
       <c r="H46" s="41"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="40"/>
       <c r="R46" s="39"/>
-      <c r="S46" s="40"/>
-    </row>
-    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="40"/>
+    </row>
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="39"/>
-      <c r="B47" s="40"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="39"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="39"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
       <c r="H47" s="41"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="40"/>
       <c r="R47" s="39"/>
-      <c r="S47" s="40"/>
-    </row>
-    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="40"/>
+    </row>
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="39"/>
-      <c r="B48" s="40"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="39"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="39"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
       <c r="H48" s="41"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="40"/>
       <c r="R48" s="39"/>
-      <c r="S48" s="40"/>
-    </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="40"/>
+    </row>
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="39"/>
-      <c r="B49" s="40"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="39"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="39"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
       <c r="H49" s="41"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="40"/>
       <c r="R49" s="39"/>
-      <c r="S49" s="40"/>
-    </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="40"/>
+    </row>
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="39"/>
-      <c r="B50" s="40"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="39"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="39"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
       <c r="H50" s="41"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="40"/>
       <c r="R50" s="39"/>
-      <c r="S50" s="40"/>
-    </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="40"/>
+    </row>
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="39"/>
-      <c r="B51" s="40"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="39"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="39"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="40"/>
       <c r="R51" s="39"/>
-      <c r="S51" s="40"/>
-    </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="40"/>
+    </row>
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="39"/>
-      <c r="B52" s="40"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="39"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="39"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
       <c r="H52" s="41"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="40"/>
       <c r="R52" s="39"/>
-      <c r="S52" s="40"/>
-    </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="40"/>
+    </row>
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="39"/>
-      <c r="B53" s="40"/>
+      <c r="B53" s="39"/>
       <c r="C53" s="39"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="39"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
       <c r="H53" s="41"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="40"/>
       <c r="R53" s="39"/>
-      <c r="S53" s="40"/>
-    </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="40"/>
+    </row>
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="39"/>
-      <c r="B54" s="40"/>
+      <c r="B54" s="39"/>
       <c r="C54" s="39"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="39"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
       <c r="H54" s="41"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="40"/>
       <c r="R54" s="39"/>
-      <c r="S54" s="40"/>
-    </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="40"/>
+    </row>
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="39"/>
-      <c r="B55" s="40"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="39"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="39"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
       <c r="H55" s="41"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="41"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="40"/>
       <c r="R55" s="39"/>
-      <c r="S55" s="40"/>
-    </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="40"/>
+    </row>
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="39"/>
-      <c r="B56" s="40"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="39"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="39"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="41"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="40"/>
       <c r="R56" s="39"/>
-      <c r="S56" s="40"/>
-    </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S56" s="39"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="40"/>
+    </row>
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="39"/>
-      <c r="B57" s="40"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="39"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="39"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
       <c r="H57" s="41"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="40"/>
       <c r="R57" s="39"/>
-      <c r="S57" s="40"/>
-    </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S57" s="39"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="40"/>
+    </row>
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="39"/>
-      <c r="B58" s="40"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="39"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="39"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
       <c r="H58" s="41"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="40"/>
       <c r="R58" s="39"/>
-      <c r="S58" s="40"/>
-    </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="40"/>
+    </row>
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="39"/>
-      <c r="B59" s="40"/>
+      <c r="B59" s="39"/>
       <c r="C59" s="39"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="39"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
       <c r="H59" s="41"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="41"/>
+      <c r="Q59" s="40"/>
       <c r="R59" s="39"/>
-      <c r="S59" s="40"/>
-    </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="40"/>
+    </row>
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="39"/>
-      <c r="B60" s="40"/>
+      <c r="B60" s="39"/>
       <c r="C60" s="39"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="39"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
       <c r="H60" s="41"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="40"/>
       <c r="R60" s="39"/>
-      <c r="S60" s="40"/>
-    </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="40"/>
+    </row>
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="39"/>
-      <c r="B61" s="40"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="39"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="39"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
       <c r="H61" s="41"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="41"/>
+      <c r="Q61" s="40"/>
       <c r="R61" s="39"/>
-      <c r="S61" s="40"/>
-    </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="40"/>
+    </row>
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="39"/>
-      <c r="B62" s="40"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="39"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="39"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
       <c r="H62" s="41"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="40"/>
       <c r="R62" s="39"/>
-      <c r="S62" s="40"/>
-    </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="40"/>
+    </row>
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="39"/>
-      <c r="B63" s="40"/>
+      <c r="B63" s="39"/>
       <c r="C63" s="39"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="39"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
       <c r="H63" s="41"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="41"/>
+      <c r="Q63" s="40"/>
       <c r="R63" s="39"/>
-      <c r="S63" s="40"/>
-    </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="40"/>
+    </row>
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="39"/>
-      <c r="B64" s="40"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="39"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="39"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
       <c r="H64" s="41"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="41"/>
+      <c r="Q64" s="40"/>
       <c r="R64" s="39"/>
-      <c r="S64" s="40"/>
-    </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="40"/>
+    </row>
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="39"/>
-      <c r="B65" s="40"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="39"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="39"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
       <c r="H65" s="41"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="39"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="41"/>
+      <c r="Q65" s="40"/>
       <c r="R65" s="39"/>
-      <c r="S65" s="40"/>
-    </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S65" s="39"/>
+      <c r="T65" s="39"/>
+      <c r="U65" s="40"/>
+    </row>
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="39"/>
-      <c r="B66" s="40"/>
+      <c r="B66" s="39"/>
       <c r="C66" s="39"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="39"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
       <c r="H66" s="41"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="40"/>
       <c r="R66" s="39"/>
-      <c r="S66" s="40"/>
-    </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="40"/>
+    </row>
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="39"/>
-      <c r="B67" s="40"/>
+      <c r="B67" s="39"/>
       <c r="C67" s="39"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="39"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
       <c r="H67" s="41"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="41"/>
+      <c r="Q67" s="40"/>
       <c r="R67" s="39"/>
-      <c r="S67" s="40"/>
-    </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
+      <c r="U67" s="40"/>
+    </row>
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="39"/>
-      <c r="B68" s="40"/>
+      <c r="B68" s="39"/>
       <c r="C68" s="39"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="39"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
       <c r="H68" s="41"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="42"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="41"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="40"/>
       <c r="R68" s="39"/>
-      <c r="S68" s="40"/>
-    </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="40"/>
+    </row>
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="39"/>
-      <c r="B69" s="40"/>
+      <c r="B69" s="39"/>
       <c r="C69" s="39"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="39"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
       <c r="H69" s="41"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="41"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="39"/>
-      <c r="Q69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="40"/>
       <c r="R69" s="39"/>
-      <c r="S69" s="40"/>
-    </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="40"/>
+    </row>
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="39"/>
-      <c r="B70" s="40"/>
+      <c r="B70" s="39"/>
       <c r="C70" s="39"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="39"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
       <c r="H70" s="41"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="42"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39"/>
-      <c r="N70" s="41"/>
-      <c r="O70" s="40"/>
-      <c r="P70" s="39"/>
-      <c r="Q70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="41"/>
+      <c r="Q70" s="40"/>
       <c r="R70" s="39"/>
-      <c r="S70" s="40"/>
-    </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S70" s="39"/>
+      <c r="T70" s="39"/>
+      <c r="U70" s="40"/>
+    </row>
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="39"/>
-      <c r="B71" s="40"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="39"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="39"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
       <c r="H71" s="41"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="39"/>
-      <c r="N71" s="41"/>
-      <c r="O71" s="40"/>
-      <c r="P71" s="39"/>
-      <c r="Q71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="41"/>
+      <c r="Q71" s="40"/>
       <c r="R71" s="39"/>
-      <c r="S71" s="40"/>
-    </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="40"/>
+    </row>
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="39"/>
-      <c r="B72" s="40"/>
+      <c r="B72" s="39"/>
       <c r="C72" s="39"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="39"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
       <c r="H72" s="41"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="41"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="40"/>
       <c r="R72" s="39"/>
-      <c r="S72" s="40"/>
-    </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S72" s="39"/>
+      <c r="T72" s="39"/>
+      <c r="U72" s="40"/>
+    </row>
+    <row r="73" spans="1:21" ht="16.5">
       <c r="A73" s="39"/>
-      <c r="B73" s="40"/>
+      <c r="B73" s="39"/>
       <c r="C73" s="39"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="39"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
       <c r="H73" s="41"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="39"/>
-      <c r="N73" s="41"/>
-      <c r="O73" s="40"/>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="41"/>
+      <c r="Q73" s="40"/>
       <c r="R73" s="39"/>
-      <c r="S73" s="40"/>
-    </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S73" s="39"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="40"/>
+    </row>
+    <row r="74" spans="1:21" ht="16.5">
       <c r="A74" s="39"/>
-      <c r="B74" s="40"/>
+      <c r="B74" s="39"/>
       <c r="C74" s="39"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="39"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
       <c r="H74" s="41"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
-      <c r="L74" s="39"/>
-      <c r="M74" s="39"/>
-      <c r="N74" s="41"/>
-      <c r="O74" s="40"/>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="39"/>
+      <c r="O74" s="39"/>
+      <c r="P74" s="41"/>
+      <c r="Q74" s="40"/>
       <c r="R74" s="39"/>
-      <c r="S74" s="40"/>
-    </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S74" s="39"/>
+      <c r="T74" s="39"/>
+      <c r="U74" s="40"/>
+    </row>
+    <row r="75" spans="1:21" ht="16.5">
       <c r="A75" s="39"/>
-      <c r="B75" s="40"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="39"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="39"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
       <c r="H75" s="41"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="39"/>
-      <c r="N75" s="41"/>
-      <c r="O75" s="40"/>
-      <c r="P75" s="39"/>
-      <c r="Q75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="41"/>
+      <c r="Q75" s="40"/>
       <c r="R75" s="39"/>
-      <c r="S75" s="40"/>
-    </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="40"/>
+    </row>
+    <row r="76" spans="1:21" ht="16.5">
       <c r="A76" s="39"/>
-      <c r="B76" s="40"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="39"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="39"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
       <c r="H76" s="41"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="41"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="41"/>
+      <c r="Q76" s="40"/>
       <c r="R76" s="39"/>
-      <c r="S76" s="40"/>
-    </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="40"/>
+    </row>
+    <row r="77" spans="1:21" ht="16.5">
       <c r="A77" s="39"/>
-      <c r="B77" s="40"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="39"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="39"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
       <c r="H77" s="41"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="42"/>
-      <c r="K77" s="42"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="39"/>
-      <c r="N77" s="41"/>
-      <c r="O77" s="40"/>
-      <c r="P77" s="39"/>
-      <c r="Q77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="39"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="41"/>
+      <c r="Q77" s="40"/>
       <c r="R77" s="39"/>
-      <c r="S77" s="40"/>
-    </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S77" s="39"/>
+      <c r="T77" s="39"/>
+      <c r="U77" s="40"/>
+    </row>
+    <row r="78" spans="1:21" ht="16.5">
       <c r="A78" s="39"/>
-      <c r="B78" s="40"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="39"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="39"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
       <c r="H78" s="41"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="39"/>
-      <c r="N78" s="41"/>
-      <c r="O78" s="40"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="39"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="41"/>
+      <c r="Q78" s="40"/>
       <c r="R78" s="39"/>
-      <c r="S78" s="40"/>
-    </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S78" s="39"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="40"/>
+    </row>
+    <row r="79" spans="1:21" ht="16.5">
       <c r="A79" s="39"/>
-      <c r="B79" s="40"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="39"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="39"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
       <c r="H79" s="41"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="39"/>
-      <c r="N79" s="41"/>
-      <c r="O79" s="40"/>
-      <c r="P79" s="39"/>
-      <c r="Q79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="41"/>
+      <c r="Q79" s="40"/>
       <c r="R79" s="39"/>
-      <c r="S79" s="40"/>
-    </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S79" s="39"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="40"/>
+    </row>
+    <row r="80" spans="1:21" ht="16.5">
       <c r="A80" s="39"/>
-      <c r="B80" s="40"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="39"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="39"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
       <c r="H80" s="41"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="39"/>
-      <c r="N80" s="41"/>
-      <c r="O80" s="40"/>
-      <c r="P80" s="39"/>
-      <c r="Q80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="39"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="41"/>
+      <c r="Q80" s="40"/>
       <c r="R80" s="39"/>
-      <c r="S80" s="40"/>
-    </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S80" s="39"/>
+      <c r="T80" s="39"/>
+      <c r="U80" s="40"/>
+    </row>
+    <row r="81" spans="1:21" ht="16.5">
       <c r="A81" s="39"/>
-      <c r="B81" s="40"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="39"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="39"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
       <c r="H81" s="41"/>
-      <c r="I81" s="44"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="39"/>
-      <c r="N81" s="41"/>
-      <c r="O81" s="40"/>
-      <c r="P81" s="39"/>
-      <c r="Q81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="39"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="41"/>
+      <c r="Q81" s="40"/>
       <c r="R81" s="39"/>
-      <c r="S81" s="40"/>
-    </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S81" s="39"/>
+      <c r="T81" s="39"/>
+      <c r="U81" s="40"/>
+    </row>
+    <row r="82" spans="1:21" ht="16.5">
       <c r="A82" s="39"/>
-      <c r="B82" s="40"/>
+      <c r="B82" s="39"/>
       <c r="C82" s="39"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="39"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
       <c r="H82" s="41"/>
-      <c r="I82" s="44"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="42"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="41"/>
-      <c r="O82" s="40"/>
-      <c r="P82" s="39"/>
-      <c r="Q82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="39"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="41"/>
+      <c r="Q82" s="40"/>
       <c r="R82" s="39"/>
-      <c r="S82" s="40"/>
-    </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S82" s="39"/>
+      <c r="T82" s="39"/>
+      <c r="U82" s="40"/>
+    </row>
+    <row r="83" spans="1:21" ht="16.5">
       <c r="A83" s="39"/>
-      <c r="B83" s="40"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="39"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="39"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
       <c r="H83" s="41"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="42"/>
-      <c r="K83" s="42"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="39"/>
-      <c r="N83" s="41"/>
-      <c r="O83" s="40"/>
-      <c r="P83" s="39"/>
-      <c r="Q83" s="39"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="39"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="41"/>
+      <c r="Q83" s="40"/>
       <c r="R83" s="39"/>
-      <c r="S83" s="40"/>
-    </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S83" s="39"/>
+      <c r="T83" s="39"/>
+      <c r="U83" s="40"/>
+    </row>
+    <row r="84" spans="1:21" ht="16.5">
       <c r="A84" s="39"/>
-      <c r="B84" s="40"/>
+      <c r="B84" s="39"/>
       <c r="C84" s="39"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="39"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
       <c r="H84" s="41"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="42"/>
-      <c r="K84" s="42"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="39"/>
-      <c r="N84" s="41"/>
-      <c r="O84" s="40"/>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="39"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="41"/>
+      <c r="Q84" s="40"/>
       <c r="R84" s="39"/>
-      <c r="S84" s="40"/>
-    </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S84" s="39"/>
+      <c r="T84" s="39"/>
+      <c r="U84" s="40"/>
+    </row>
+    <row r="85" spans="1:21" ht="16.5">
       <c r="A85" s="39"/>
-      <c r="B85" s="40"/>
+      <c r="B85" s="39"/>
       <c r="C85" s="39"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="39"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
       <c r="H85" s="41"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="42"/>
-      <c r="L85" s="39"/>
-      <c r="M85" s="39"/>
-      <c r="N85" s="41"/>
-      <c r="O85" s="40"/>
-      <c r="P85" s="39"/>
-      <c r="Q85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="41"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="42"/>
+      <c r="N85" s="39"/>
+      <c r="O85" s="39"/>
+      <c r="P85" s="41"/>
+      <c r="Q85" s="40"/>
       <c r="R85" s="39"/>
-      <c r="S85" s="40"/>
-    </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S85" s="39"/>
+      <c r="T85" s="39"/>
+      <c r="U85" s="40"/>
+    </row>
+    <row r="86" spans="1:21" ht="16.5">
       <c r="A86" s="39"/>
-      <c r="B86" s="40"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="39"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="39"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
       <c r="H86" s="41"/>
-      <c r="I86" s="44"/>
-      <c r="J86" s="42"/>
-      <c r="K86" s="42"/>
-      <c r="L86" s="39"/>
-      <c r="M86" s="39"/>
-      <c r="N86" s="41"/>
-      <c r="O86" s="40"/>
-      <c r="P86" s="39"/>
-      <c r="Q86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="39"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="41"/>
+      <c r="Q86" s="40"/>
       <c r="R86" s="39"/>
-      <c r="S86" s="40"/>
-    </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S86" s="39"/>
+      <c r="T86" s="39"/>
+      <c r="U86" s="40"/>
+    </row>
+    <row r="87" spans="1:21" ht="16.5">
       <c r="A87" s="39"/>
-      <c r="B87" s="40"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="39"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="39"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
       <c r="H87" s="41"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="42"/>
-      <c r="K87" s="42"/>
-      <c r="L87" s="39"/>
-      <c r="M87" s="39"/>
-      <c r="N87" s="41"/>
-      <c r="O87" s="40"/>
-      <c r="P87" s="39"/>
-      <c r="Q87" s="39"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="41"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="39"/>
+      <c r="O87" s="39"/>
+      <c r="P87" s="41"/>
+      <c r="Q87" s="40"/>
       <c r="R87" s="39"/>
-      <c r="S87" s="40"/>
-    </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S87" s="39"/>
+      <c r="T87" s="39"/>
+      <c r="U87" s="40"/>
+    </row>
+    <row r="88" spans="1:21" ht="16.5">
       <c r="A88" s="39"/>
-      <c r="B88" s="40"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="39"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="39"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
       <c r="H88" s="41"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="42"/>
-      <c r="K88" s="42"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="39"/>
-      <c r="N88" s="41"/>
-      <c r="O88" s="40"/>
-      <c r="P88" s="39"/>
-      <c r="Q88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="41"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="41"/>
+      <c r="Q88" s="40"/>
       <c r="R88" s="39"/>
-      <c r="S88" s="40"/>
-    </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S88" s="39"/>
+      <c r="T88" s="39"/>
+      <c r="U88" s="40"/>
+    </row>
+    <row r="89" spans="1:21" ht="16.5">
       <c r="A89" s="39"/>
-      <c r="B89" s="40"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="39"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="39"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
       <c r="H89" s="41"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="42"/>
-      <c r="K89" s="42"/>
-      <c r="L89" s="39"/>
-      <c r="M89" s="39"/>
-      <c r="N89" s="41"/>
-      <c r="O89" s="40"/>
-      <c r="P89" s="39"/>
-      <c r="Q89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="42"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="39"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="41"/>
+      <c r="Q89" s="40"/>
       <c r="R89" s="39"/>
-      <c r="S89" s="40"/>
-    </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S89" s="39"/>
+      <c r="T89" s="39"/>
+      <c r="U89" s="40"/>
+    </row>
+    <row r="90" spans="1:21" ht="16.5">
       <c r="A90" s="39"/>
-      <c r="B90" s="40"/>
+      <c r="B90" s="39"/>
       <c r="C90" s="39"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="39"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
       <c r="H90" s="41"/>
-      <c r="I90" s="44"/>
-      <c r="J90" s="42"/>
-      <c r="K90" s="42"/>
-      <c r="L90" s="39"/>
-      <c r="M90" s="39"/>
-      <c r="N90" s="41"/>
-      <c r="O90" s="40"/>
-      <c r="P90" s="39"/>
-      <c r="Q90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="41"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="42"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="41"/>
+      <c r="Q90" s="40"/>
       <c r="R90" s="39"/>
-      <c r="S90" s="40"/>
-    </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S90" s="39"/>
+      <c r="T90" s="39"/>
+      <c r="U90" s="40"/>
+    </row>
+    <row r="91" spans="1:21" ht="16.5">
       <c r="A91" s="39"/>
-      <c r="B91" s="40"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="39"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="39"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
       <c r="H91" s="41"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="42"/>
-      <c r="K91" s="42"/>
-      <c r="L91" s="39"/>
-      <c r="M91" s="39"/>
-      <c r="N91" s="41"/>
-      <c r="O91" s="40"/>
-      <c r="P91" s="39"/>
-      <c r="Q91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="41"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="42"/>
+      <c r="M91" s="42"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="41"/>
+      <c r="Q91" s="40"/>
       <c r="R91" s="39"/>
-      <c r="S91" s="40"/>
-    </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="40"/>
+    </row>
+    <row r="92" spans="1:21" ht="16.5">
       <c r="A92" s="39"/>
-      <c r="B92" s="40"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="39"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="39"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
       <c r="H92" s="41"/>
-      <c r="I92" s="44"/>
-      <c r="J92" s="42"/>
-      <c r="K92" s="42"/>
-      <c r="L92" s="39"/>
-      <c r="M92" s="39"/>
-      <c r="N92" s="41"/>
-      <c r="O92" s="40"/>
-      <c r="P92" s="39"/>
-      <c r="Q92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="41"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="42"/>
+      <c r="N92" s="39"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="41"/>
+      <c r="Q92" s="40"/>
       <c r="R92" s="39"/>
-      <c r="S92" s="40"/>
-    </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S92" s="39"/>
+      <c r="T92" s="39"/>
+      <c r="U92" s="40"/>
+    </row>
+    <row r="93" spans="1:21" ht="16.5">
       <c r="A93" s="39"/>
-      <c r="B93" s="40"/>
+      <c r="B93" s="39"/>
       <c r="C93" s="39"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="39"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
       <c r="H93" s="41"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="42"/>
-      <c r="K93" s="42"/>
-      <c r="L93" s="39"/>
-      <c r="M93" s="39"/>
-      <c r="N93" s="41"/>
-      <c r="O93" s="40"/>
-      <c r="P93" s="39"/>
-      <c r="Q93" s="39"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="41"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="42"/>
+      <c r="N93" s="39"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="41"/>
+      <c r="Q93" s="40"/>
       <c r="R93" s="39"/>
-      <c r="S93" s="40"/>
-    </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S93" s="39"/>
+      <c r="T93" s="39"/>
+      <c r="U93" s="40"/>
+    </row>
+    <row r="94" spans="1:21" ht="16.5">
       <c r="A94" s="39"/>
-      <c r="B94" s="40"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="39"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="39"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
       <c r="H94" s="41"/>
-      <c r="I94" s="44"/>
-      <c r="J94" s="42"/>
-      <c r="K94" s="42"/>
-      <c r="L94" s="39"/>
-      <c r="M94" s="39"/>
-      <c r="N94" s="41"/>
-      <c r="O94" s="40"/>
-      <c r="P94" s="39"/>
-      <c r="Q94" s="39"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="41"/>
+      <c r="K94" s="44"/>
+      <c r="L94" s="42"/>
+      <c r="M94" s="42"/>
+      <c r="N94" s="39"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="41"/>
+      <c r="Q94" s="40"/>
       <c r="R94" s="39"/>
-      <c r="S94" s="40"/>
-    </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S94" s="39"/>
+      <c r="T94" s="39"/>
+      <c r="U94" s="40"/>
+    </row>
+    <row r="95" spans="1:21" ht="16.5">
       <c r="A95" s="39"/>
-      <c r="B95" s="40"/>
+      <c r="B95" s="39"/>
       <c r="C95" s="39"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="39"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
       <c r="H95" s="41"/>
-      <c r="I95" s="44"/>
-      <c r="J95" s="42"/>
-      <c r="K95" s="42"/>
-      <c r="L95" s="39"/>
-      <c r="M95" s="39"/>
-      <c r="N95" s="41"/>
-      <c r="O95" s="40"/>
-      <c r="P95" s="39"/>
-      <c r="Q95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="41"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="42"/>
+      <c r="M95" s="42"/>
+      <c r="N95" s="39"/>
+      <c r="O95" s="39"/>
+      <c r="P95" s="41"/>
+      <c r="Q95" s="40"/>
       <c r="R95" s="39"/>
-      <c r="S95" s="40"/>
-    </row>
-    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S95" s="39"/>
+      <c r="T95" s="39"/>
+      <c r="U95" s="40"/>
+    </row>
+    <row r="96" spans="1:21" ht="16.5">
       <c r="A96" s="39"/>
-      <c r="B96" s="40"/>
+      <c r="B96" s="39"/>
       <c r="C96" s="39"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="39"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
       <c r="H96" s="41"/>
-      <c r="I96" s="44"/>
-      <c r="J96" s="42"/>
-      <c r="K96" s="42"/>
-      <c r="L96" s="39"/>
-      <c r="M96" s="39"/>
-      <c r="N96" s="41"/>
-      <c r="O96" s="40"/>
-      <c r="P96" s="39"/>
-      <c r="Q96" s="39"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="41"/>
+      <c r="K96" s="44"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="39"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="41"/>
+      <c r="Q96" s="40"/>
       <c r="R96" s="39"/>
-      <c r="S96" s="40"/>
-    </row>
-    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S96" s="39"/>
+      <c r="T96" s="39"/>
+      <c r="U96" s="40"/>
+    </row>
+    <row r="97" spans="1:21" ht="16.5">
       <c r="A97" s="39"/>
-      <c r="B97" s="40"/>
+      <c r="B97" s="39"/>
       <c r="C97" s="39"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="39"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
       <c r="H97" s="41"/>
-      <c r="I97" s="44"/>
-      <c r="J97" s="42"/>
-      <c r="K97" s="42"/>
-      <c r="L97" s="39"/>
-      <c r="M97" s="39"/>
-      <c r="N97" s="41"/>
-      <c r="O97" s="40"/>
-      <c r="P97" s="39"/>
-      <c r="Q97" s="39"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="41"/>
+      <c r="K97" s="44"/>
+      <c r="L97" s="42"/>
+      <c r="M97" s="42"/>
+      <c r="N97" s="39"/>
+      <c r="O97" s="39"/>
+      <c r="P97" s="41"/>
+      <c r="Q97" s="40"/>
       <c r="R97" s="39"/>
-      <c r="S97" s="40"/>
-    </row>
-    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S97" s="39"/>
+      <c r="T97" s="39"/>
+      <c r="U97" s="40"/>
+    </row>
+    <row r="98" spans="1:21" ht="16.5">
       <c r="A98" s="39"/>
-      <c r="B98" s="40"/>
+      <c r="B98" s="39"/>
       <c r="C98" s="39"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="39"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
       <c r="H98" s="41"/>
-      <c r="I98" s="44"/>
-      <c r="J98" s="42"/>
-      <c r="K98" s="42"/>
-      <c r="L98" s="39"/>
-      <c r="M98" s="39"/>
-      <c r="N98" s="41"/>
-      <c r="O98" s="40"/>
-      <c r="P98" s="39"/>
-      <c r="Q98" s="39"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="44"/>
+      <c r="L98" s="42"/>
+      <c r="M98" s="42"/>
+      <c r="N98" s="39"/>
+      <c r="O98" s="39"/>
+      <c r="P98" s="41"/>
+      <c r="Q98" s="40"/>
       <c r="R98" s="39"/>
-      <c r="S98" s="40"/>
-    </row>
-    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S98" s="39"/>
+      <c r="T98" s="39"/>
+      <c r="U98" s="40"/>
+    </row>
+    <row r="99" spans="1:21" ht="16.5">
       <c r="A99" s="39"/>
-      <c r="B99" s="40"/>
+      <c r="B99" s="39"/>
       <c r="C99" s="39"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="39"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
       <c r="H99" s="41"/>
-      <c r="I99" s="44"/>
-      <c r="J99" s="42"/>
-      <c r="K99" s="42"/>
-      <c r="L99" s="39"/>
-      <c r="M99" s="39"/>
-      <c r="N99" s="41"/>
-      <c r="O99" s="40"/>
-      <c r="P99" s="39"/>
-      <c r="Q99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="41"/>
+      <c r="K99" s="44"/>
+      <c r="L99" s="42"/>
+      <c r="M99" s="42"/>
+      <c r="N99" s="39"/>
+      <c r="O99" s="39"/>
+      <c r="P99" s="41"/>
+      <c r="Q99" s="40"/>
       <c r="R99" s="39"/>
-      <c r="S99" s="40"/>
-    </row>
-    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S99" s="39"/>
+      <c r="T99" s="39"/>
+      <c r="U99" s="40"/>
+    </row>
+    <row r="100" spans="1:21" ht="16.5">
       <c r="A100" s="39"/>
-      <c r="B100" s="40"/>
+      <c r="B100" s="39"/>
       <c r="C100" s="39"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="39"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
       <c r="H100" s="41"/>
-      <c r="I100" s="44"/>
-      <c r="J100" s="42"/>
-      <c r="K100" s="42"/>
-      <c r="L100" s="39"/>
-      <c r="M100" s="39"/>
-      <c r="N100" s="41"/>
-      <c r="O100" s="40"/>
-      <c r="P100" s="39"/>
-      <c r="Q100" s="39"/>
+      <c r="I100" s="39"/>
+      <c r="J100" s="41"/>
+      <c r="K100" s="44"/>
+      <c r="L100" s="42"/>
+      <c r="M100" s="42"/>
+      <c r="N100" s="39"/>
+      <c r="O100" s="39"/>
+      <c r="P100" s="41"/>
+      <c r="Q100" s="40"/>
       <c r="R100" s="39"/>
-      <c r="S100" s="40"/>
-    </row>
-    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S100" s="39"/>
+      <c r="T100" s="39"/>
+      <c r="U100" s="40"/>
+    </row>
+    <row r="101" spans="1:21" ht="16.5">
       <c r="A101" s="39"/>
-      <c r="B101" s="40"/>
+      <c r="B101" s="39"/>
       <c r="C101" s="39"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="39"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
       <c r="H101" s="41"/>
-      <c r="I101" s="44"/>
-      <c r="J101" s="42"/>
-      <c r="K101" s="42"/>
-      <c r="L101" s="39"/>
-      <c r="M101" s="39"/>
-      <c r="N101" s="41"/>
-      <c r="O101" s="40"/>
-      <c r="P101" s="39"/>
-      <c r="Q101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="41"/>
+      <c r="K101" s="44"/>
+      <c r="L101" s="42"/>
+      <c r="M101" s="42"/>
+      <c r="N101" s="39"/>
+      <c r="O101" s="39"/>
+      <c r="P101" s="41"/>
+      <c r="Q101" s="40"/>
       <c r="R101" s="39"/>
-      <c r="S101" s="40"/>
-    </row>
-    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S101" s="39"/>
+      <c r="T101" s="39"/>
+      <c r="U101" s="40"/>
+    </row>
+    <row r="102" spans="1:21" ht="16.5">
       <c r="A102" s="39"/>
-      <c r="B102" s="40"/>
+      <c r="B102" s="39"/>
       <c r="C102" s="39"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="39"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
       <c r="H102" s="41"/>
-      <c r="I102" s="44"/>
-      <c r="J102" s="42"/>
-      <c r="K102" s="42"/>
-      <c r="L102" s="39"/>
-      <c r="M102" s="39"/>
-      <c r="N102" s="41"/>
-      <c r="O102" s="40"/>
-      <c r="P102" s="39"/>
-      <c r="Q102" s="39"/>
-      <c r="R102" s="39"/>
-      <c r="S102" s="40"/>
-    </row>
-    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I102" s="39"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="42"/>
+      <c r="M102" s="42"/>
+      <c r="N102" s="39"/>
+      <c r="O102" s="39"/>
+      <c r="P102" s="41"/>
+      <c r="Q102" s="40"/>
+      <c r="U102" s="40"/>
+    </row>
+    <row r="103" spans="1:21" ht="16.5">
       <c r="A103" s="39"/>
-      <c r="B103" s="40"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="39"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="39"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
       <c r="H103" s="41"/>
-      <c r="I103" s="44"/>
-      <c r="J103" s="42"/>
-      <c r="K103" s="42"/>
-      <c r="L103" s="39"/>
-      <c r="M103" s="39"/>
-      <c r="N103" s="41"/>
-      <c r="O103" s="40"/>
-      <c r="S103" s="40"/>
-    </row>
-    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I103" s="39"/>
+      <c r="J103" s="41"/>
+      <c r="K103" s="44"/>
+      <c r="L103" s="42"/>
+      <c r="M103" s="42"/>
+      <c r="N103" s="39"/>
+      <c r="O103" s="39"/>
+      <c r="P103" s="41"/>
+      <c r="Q103" s="40"/>
+      <c r="U103" s="40"/>
+    </row>
+    <row r="104" spans="1:21" ht="16.5">
       <c r="A104" s="39"/>
-      <c r="B104" s="40"/>
+      <c r="B104" s="39"/>
       <c r="C104" s="39"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="39"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
       <c r="H104" s="41"/>
-      <c r="I104" s="44"/>
-      <c r="J104" s="42"/>
-      <c r="K104" s="42"/>
-      <c r="L104" s="39"/>
-      <c r="M104" s="39"/>
-      <c r="N104" s="41"/>
-      <c r="O104" s="40"/>
-      <c r="S104" s="40"/>
-    </row>
-    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I104" s="39"/>
+      <c r="J104" s="41"/>
+      <c r="K104" s="44"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="42"/>
+      <c r="N104" s="39"/>
+      <c r="O104" s="39"/>
+      <c r="P104" s="41"/>
+      <c r="Q104" s="40"/>
+      <c r="U104" s="40"/>
+    </row>
+    <row r="105" spans="1:21" ht="16.5">
       <c r="A105" s="39"/>
-      <c r="B105" s="40"/>
+      <c r="B105" s="39"/>
       <c r="C105" s="39"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="39"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
       <c r="H105" s="41"/>
-      <c r="I105" s="44"/>
-      <c r="J105" s="42"/>
-      <c r="K105" s="42"/>
-      <c r="L105" s="39"/>
-      <c r="M105" s="39"/>
-      <c r="N105" s="41"/>
-      <c r="O105" s="40"/>
-      <c r="S105" s="40"/>
-    </row>
-    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I105" s="39"/>
+      <c r="J105" s="41"/>
+      <c r="K105" s="44"/>
+      <c r="L105" s="42"/>
+      <c r="M105" s="42"/>
+      <c r="N105" s="39"/>
+      <c r="O105" s="39"/>
+      <c r="P105" s="41"/>
+      <c r="Q105" s="40"/>
+      <c r="U105" s="40"/>
+    </row>
+    <row r="106" spans="1:21" ht="16.5">
       <c r="A106" s="39"/>
-      <c r="B106" s="40"/>
+      <c r="B106" s="39"/>
       <c r="C106" s="39"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="39"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36"/>
       <c r="H106" s="41"/>
-      <c r="I106" s="44"/>
-      <c r="J106" s="42"/>
-      <c r="K106" s="42"/>
-      <c r="L106" s="39"/>
-      <c r="M106" s="39"/>
-      <c r="N106" s="41"/>
-      <c r="O106" s="40"/>
-      <c r="S106" s="40"/>
-    </row>
-    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I106" s="39"/>
+      <c r="J106" s="41"/>
+      <c r="K106" s="44"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="42"/>
+      <c r="N106" s="39"/>
+      <c r="O106" s="39"/>
+      <c r="P106" s="41"/>
+      <c r="Q106" s="40"/>
+      <c r="U106" s="40"/>
+    </row>
+    <row r="107" spans="1:21" ht="16.5">
       <c r="A107" s="39"/>
-      <c r="B107" s="40"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="39"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="39"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="36"/>
       <c r="H107" s="41"/>
-      <c r="I107" s="44"/>
-      <c r="J107" s="42"/>
-      <c r="K107" s="42"/>
-      <c r="L107" s="39"/>
-      <c r="M107" s="39"/>
-      <c r="N107" s="41"/>
-      <c r="O107" s="40"/>
-      <c r="S107" s="40"/>
-    </row>
-    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I107" s="39"/>
+      <c r="J107" s="41"/>
+      <c r="K107" s="44"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="42"/>
+      <c r="N107" s="39"/>
+      <c r="O107" s="39"/>
+      <c r="P107" s="41"/>
+      <c r="Q107" s="40"/>
+      <c r="U107" s="40"/>
+    </row>
+    <row r="108" spans="1:21" ht="16.5">
       <c r="A108" s="39"/>
-      <c r="B108" s="40"/>
+      <c r="B108" s="39"/>
       <c r="C108" s="39"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="39"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
       <c r="H108" s="41"/>
-      <c r="I108" s="44"/>
-      <c r="J108" s="42"/>
-      <c r="K108" s="42"/>
-      <c r="L108" s="39"/>
-      <c r="M108" s="39"/>
-      <c r="N108" s="41"/>
-      <c r="O108" s="40"/>
-      <c r="S108" s="40"/>
-    </row>
-    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I108" s="39"/>
+      <c r="J108" s="41"/>
+      <c r="K108" s="44"/>
+      <c r="L108" s="42"/>
+      <c r="M108" s="42"/>
+      <c r="N108" s="39"/>
+      <c r="O108" s="39"/>
+      <c r="P108" s="41"/>
+      <c r="Q108" s="40"/>
+      <c r="U108" s="40"/>
+    </row>
+    <row r="109" spans="1:21" ht="16.5">
       <c r="A109" s="39"/>
-      <c r="B109" s="40"/>
+      <c r="B109" s="39"/>
       <c r="C109" s="39"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="39"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="36"/>
       <c r="H109" s="41"/>
-      <c r="I109" s="44"/>
-      <c r="J109" s="42"/>
-      <c r="K109" s="42"/>
-      <c r="L109" s="39"/>
-      <c r="M109" s="39"/>
-      <c r="N109" s="41"/>
-      <c r="O109" s="40"/>
-      <c r="S109" s="40"/>
-    </row>
-    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I109" s="39"/>
+      <c r="J109" s="41"/>
+      <c r="K109" s="44"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="39"/>
+      <c r="O109" s="39"/>
+      <c r="P109" s="41"/>
+      <c r="Q109" s="40"/>
+      <c r="U109" s="40"/>
+    </row>
+    <row r="110" spans="1:21" ht="16.5">
       <c r="A110" s="39"/>
-      <c r="B110" s="40"/>
+      <c r="B110" s="39"/>
       <c r="C110" s="39"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="41"/>
-      <c r="G110" s="39"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="36"/>
       <c r="H110" s="41"/>
-      <c r="I110" s="44"/>
-      <c r="J110" s="42"/>
-      <c r="K110" s="42"/>
-      <c r="L110" s="39"/>
-      <c r="M110" s="39"/>
-      <c r="N110" s="41"/>
-      <c r="O110" s="40"/>
-      <c r="S110" s="40"/>
-    </row>
-    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I110" s="39"/>
+      <c r="J110" s="41"/>
+      <c r="K110" s="44"/>
+      <c r="L110" s="42"/>
+      <c r="M110" s="42"/>
+      <c r="N110" s="39"/>
+      <c r="O110" s="39"/>
+      <c r="P110" s="41"/>
+      <c r="Q110" s="40"/>
+      <c r="U110" s="40"/>
+    </row>
+    <row r="111" spans="1:21" ht="16.5">
       <c r="A111" s="39"/>
-      <c r="B111" s="40"/>
+      <c r="B111" s="39"/>
       <c r="C111" s="39"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="39"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="36"/>
       <c r="H111" s="41"/>
-      <c r="I111" s="44"/>
-      <c r="J111" s="42"/>
-      <c r="K111" s="42"/>
-      <c r="L111" s="39"/>
-      <c r="M111" s="39"/>
-      <c r="N111" s="41"/>
-      <c r="O111" s="40"/>
-      <c r="S111" s="40"/>
-    </row>
-    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I111" s="39"/>
+      <c r="J111" s="41"/>
+      <c r="K111" s="44"/>
+      <c r="L111" s="42"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="39"/>
+      <c r="O111" s="39"/>
+      <c r="P111" s="41"/>
+      <c r="Q111" s="40"/>
+      <c r="U111" s="40"/>
+    </row>
+    <row r="112" spans="1:21" ht="16.5">
       <c r="A112" s="39"/>
-      <c r="B112" s="40"/>
+      <c r="B112" s="39"/>
       <c r="C112" s="39"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="41"/>
-      <c r="G112" s="39"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
       <c r="H112" s="41"/>
-      <c r="I112" s="44"/>
-      <c r="J112" s="42"/>
-      <c r="K112" s="42"/>
-      <c r="L112" s="39"/>
-      <c r="M112" s="39"/>
-      <c r="N112" s="41"/>
-      <c r="O112" s="40"/>
-      <c r="S112" s="40"/>
-    </row>
-    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I112" s="39"/>
+      <c r="J112" s="41"/>
+      <c r="K112" s="44"/>
+      <c r="L112" s="42"/>
+      <c r="M112" s="42"/>
+      <c r="N112" s="39"/>
+      <c r="O112" s="39"/>
+      <c r="P112" s="41"/>
+      <c r="Q112" s="40"/>
+      <c r="U112" s="40"/>
+    </row>
+    <row r="113" spans="1:21" ht="16.5">
       <c r="A113" s="39"/>
-      <c r="B113" s="40"/>
+      <c r="B113" s="39"/>
       <c r="C113" s="39"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="41"/>
-      <c r="G113" s="39"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
       <c r="H113" s="41"/>
-      <c r="I113" s="44"/>
-      <c r="J113" s="42"/>
-      <c r="K113" s="42"/>
-      <c r="L113" s="39"/>
-      <c r="M113" s="39"/>
-      <c r="N113" s="41"/>
-      <c r="O113" s="40"/>
-      <c r="S113" s="40"/>
-    </row>
-    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I113" s="39"/>
+      <c r="J113" s="41"/>
+      <c r="K113" s="44"/>
+      <c r="L113" s="42"/>
+      <c r="M113" s="42"/>
+      <c r="N113" s="39"/>
+      <c r="O113" s="39"/>
+      <c r="P113" s="41"/>
+      <c r="Q113" s="40"/>
+      <c r="U113" s="40"/>
+    </row>
+    <row r="114" spans="1:21" ht="16.5">
       <c r="A114" s="39"/>
-      <c r="B114" s="40"/>
+      <c r="B114" s="39"/>
       <c r="C114" s="39"/>
-      <c r="D114" s="36"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="39"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="36"/>
       <c r="H114" s="41"/>
-      <c r="I114" s="44"/>
-      <c r="J114" s="42"/>
-      <c r="K114" s="42"/>
-      <c r="L114" s="39"/>
-      <c r="M114" s="39"/>
-      <c r="N114" s="41"/>
-      <c r="O114" s="40"/>
-      <c r="S114" s="40"/>
-    </row>
-    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I114" s="39"/>
+      <c r="J114" s="41"/>
+      <c r="K114" s="44"/>
+      <c r="L114" s="42"/>
+      <c r="M114" s="42"/>
+      <c r="N114" s="39"/>
+      <c r="O114" s="39"/>
+      <c r="P114" s="41"/>
+      <c r="Q114" s="40"/>
+      <c r="U114" s="40"/>
+    </row>
+    <row r="115" spans="1:21" ht="16.5">
       <c r="A115" s="39"/>
-      <c r="B115" s="40"/>
+      <c r="B115" s="39"/>
       <c r="C115" s="39"/>
-      <c r="D115" s="36"/>
-      <c r="E115" s="36"/>
-      <c r="F115" s="41"/>
-      <c r="G115" s="39"/>
+      <c r="D115" s="40"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="36"/>
       <c r="H115" s="41"/>
-      <c r="I115" s="44"/>
-      <c r="J115" s="42"/>
-      <c r="K115" s="42"/>
-      <c r="L115" s="39"/>
-      <c r="M115" s="39"/>
-      <c r="N115" s="41"/>
-      <c r="O115" s="40"/>
-      <c r="S115" s="40"/>
-    </row>
-    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I115" s="39"/>
+      <c r="J115" s="41"/>
+      <c r="K115" s="44"/>
+      <c r="L115" s="42"/>
+      <c r="M115" s="42"/>
+      <c r="N115" s="39"/>
+      <c r="O115" s="39"/>
+      <c r="P115" s="41"/>
+      <c r="Q115" s="40"/>
+      <c r="U115" s="40"/>
+    </row>
+    <row r="116" spans="1:21" ht="16.5">
       <c r="A116" s="39"/>
-      <c r="B116" s="40"/>
+      <c r="B116" s="39"/>
       <c r="C116" s="39"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="41"/>
-      <c r="G116" s="39"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="36"/>
       <c r="H116" s="41"/>
-      <c r="I116" s="44"/>
-      <c r="J116" s="42"/>
-      <c r="K116" s="42"/>
-      <c r="L116" s="39"/>
-      <c r="M116" s="39"/>
-      <c r="N116" s="41"/>
-      <c r="O116" s="40"/>
-      <c r="S116" s="40"/>
-    </row>
-    <row r="117" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I116" s="39"/>
+      <c r="J116" s="41"/>
+      <c r="K116" s="44"/>
+      <c r="L116" s="42"/>
+      <c r="M116" s="42"/>
+      <c r="N116" s="39"/>
+      <c r="O116" s="39"/>
+      <c r="P116" s="41"/>
+      <c r="Q116" s="40"/>
+      <c r="U116" s="40"/>
+    </row>
+    <row r="117" spans="1:21" ht="16.5">
       <c r="A117" s="39"/>
-      <c r="B117" s="40"/>
+      <c r="B117" s="39"/>
       <c r="C117" s="39"/>
-      <c r="D117" s="36"/>
-      <c r="E117" s="36"/>
-      <c r="F117" s="41"/>
-      <c r="G117" s="39"/>
+      <c r="D117" s="40"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="36"/>
+      <c r="G117" s="36"/>
       <c r="H117" s="41"/>
-      <c r="I117" s="44"/>
-      <c r="J117" s="42"/>
-      <c r="K117" s="42"/>
-      <c r="L117" s="39"/>
-      <c r="M117" s="39"/>
-      <c r="N117" s="41"/>
-      <c r="O117" s="40"/>
-      <c r="S117" s="40"/>
-    </row>
-    <row r="118" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I117" s="39"/>
+      <c r="J117" s="41"/>
+      <c r="K117" s="44"/>
+      <c r="L117" s="42"/>
+      <c r="M117" s="42"/>
+      <c r="N117" s="39"/>
+      <c r="O117" s="39"/>
+      <c r="P117" s="41"/>
+      <c r="Q117" s="40"/>
+      <c r="U117" s="40"/>
+    </row>
+    <row r="118" spans="1:21" ht="16.5">
       <c r="A118" s="39"/>
-      <c r="B118" s="40"/>
+      <c r="B118" s="39"/>
       <c r="C118" s="39"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="39"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="36"/>
       <c r="H118" s="41"/>
-      <c r="I118" s="44"/>
-      <c r="J118" s="42"/>
-      <c r="K118" s="42"/>
-      <c r="L118" s="39"/>
-      <c r="M118" s="39"/>
-      <c r="N118" s="41"/>
-      <c r="O118" s="40"/>
-      <c r="S118" s="40"/>
-    </row>
-    <row r="119" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I118" s="39"/>
+      <c r="J118" s="41"/>
+      <c r="K118" s="44"/>
+      <c r="L118" s="42"/>
+      <c r="M118" s="42"/>
+      <c r="N118" s="39"/>
+      <c r="O118" s="39"/>
+      <c r="P118" s="41"/>
+      <c r="Q118" s="40"/>
+      <c r="U118" s="40"/>
+    </row>
+    <row r="119" spans="1:21" ht="16.5">
       <c r="A119" s="39"/>
-      <c r="B119" s="40"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="39"/>
-      <c r="D119" s="36"/>
-      <c r="E119" s="36"/>
-      <c r="F119" s="41"/>
-      <c r="G119" s="39"/>
+      <c r="D119" s="40"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="36"/>
+      <c r="G119" s="36"/>
       <c r="H119" s="41"/>
-      <c r="I119" s="44"/>
-      <c r="J119" s="42"/>
-      <c r="K119" s="42"/>
-      <c r="L119" s="39"/>
-      <c r="M119" s="39"/>
-      <c r="N119" s="41"/>
-      <c r="O119" s="40"/>
-      <c r="S119" s="40"/>
-    </row>
-    <row r="120" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I119" s="39"/>
+      <c r="J119" s="41"/>
+      <c r="K119" s="44"/>
+      <c r="L119" s="42"/>
+      <c r="M119" s="42"/>
+      <c r="N119" s="39"/>
+      <c r="O119" s="39"/>
+      <c r="P119" s="41"/>
+      <c r="Q119" s="40"/>
+      <c r="U119" s="40"/>
+    </row>
+    <row r="120" spans="1:21" ht="16.5">
       <c r="A120" s="39"/>
-      <c r="B120" s="40"/>
+      <c r="B120" s="39"/>
       <c r="C120" s="39"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="36"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="39"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="36"/>
       <c r="H120" s="41"/>
-      <c r="I120" s="44"/>
-      <c r="J120" s="42"/>
-      <c r="K120" s="42"/>
-      <c r="L120" s="39"/>
-      <c r="M120" s="39"/>
-      <c r="N120" s="41"/>
-      <c r="O120" s="40"/>
-      <c r="S120" s="40"/>
-    </row>
-    <row r="121" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I120" s="39"/>
+      <c r="J120" s="41"/>
+      <c r="K120" s="44"/>
+      <c r="L120" s="42"/>
+      <c r="M120" s="42"/>
+      <c r="N120" s="39"/>
+      <c r="O120" s="39"/>
+      <c r="P120" s="41"/>
+      <c r="Q120" s="40"/>
+      <c r="U120" s="40"/>
+    </row>
+    <row r="121" spans="1:21" ht="16.5">
       <c r="A121" s="39"/>
-      <c r="B121" s="40"/>
+      <c r="B121" s="39"/>
       <c r="C121" s="39"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="39"/>
+      <c r="D121" s="40"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="36"/>
       <c r="H121" s="41"/>
-      <c r="I121" s="44"/>
-      <c r="J121" s="42"/>
-      <c r="K121" s="42"/>
-      <c r="L121" s="39"/>
-      <c r="M121" s="39"/>
-      <c r="N121" s="41"/>
-      <c r="O121" s="40"/>
-      <c r="S121" s="40"/>
-    </row>
-    <row r="122" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I121" s="39"/>
+      <c r="J121" s="41"/>
+      <c r="K121" s="44"/>
+      <c r="L121" s="42"/>
+      <c r="M121" s="42"/>
+      <c r="N121" s="39"/>
+      <c r="O121" s="39"/>
+      <c r="P121" s="41"/>
+      <c r="Q121" s="40"/>
+      <c r="U121" s="40"/>
+    </row>
+    <row r="122" spans="1:21" ht="16.5">
       <c r="A122" s="39"/>
-      <c r="B122" s="40"/>
+      <c r="B122" s="39"/>
       <c r="C122" s="39"/>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="39"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="36"/>
       <c r="H122" s="41"/>
-      <c r="I122" s="44"/>
-      <c r="J122" s="42"/>
-      <c r="K122" s="42"/>
-      <c r="L122" s="39"/>
-      <c r="M122" s="39"/>
-      <c r="N122" s="41"/>
-      <c r="O122" s="40"/>
-      <c r="S122" s="40"/>
-    </row>
-    <row r="123" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I122" s="39"/>
+      <c r="J122" s="41"/>
+      <c r="K122" s="44"/>
+      <c r="L122" s="42"/>
+      <c r="M122" s="42"/>
+      <c r="N122" s="39"/>
+      <c r="O122" s="39"/>
+      <c r="P122" s="41"/>
+      <c r="Q122" s="40"/>
+      <c r="U122" s="40"/>
+    </row>
+    <row r="123" spans="1:21" ht="16.5">
       <c r="A123" s="39"/>
-      <c r="B123" s="40"/>
+      <c r="B123" s="39"/>
       <c r="C123" s="39"/>
-      <c r="D123" s="36"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="41"/>
-      <c r="G123" s="39"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="39"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="36"/>
       <c r="H123" s="41"/>
-      <c r="I123" s="44"/>
-      <c r="J123" s="42"/>
-      <c r="K123" s="42"/>
-      <c r="L123" s="39"/>
-      <c r="M123" s="39"/>
-      <c r="N123" s="41"/>
-      <c r="O123" s="40"/>
-      <c r="S123" s="40"/>
-    </row>
-    <row r="124" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I123" s="39"/>
+      <c r="J123" s="41"/>
+      <c r="K123" s="44"/>
+      <c r="L123" s="42"/>
+      <c r="M123" s="42"/>
+      <c r="N123" s="39"/>
+      <c r="O123" s="39"/>
+      <c r="P123" s="41"/>
+      <c r="Q123" s="40"/>
+      <c r="U123" s="40"/>
+    </row>
+    <row r="124" spans="1:21" ht="16.5">
       <c r="A124" s="39"/>
-      <c r="B124" s="40"/>
+      <c r="B124" s="39"/>
       <c r="C124" s="39"/>
-      <c r="D124" s="36"/>
-      <c r="E124" s="36"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="39"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="36"/>
       <c r="H124" s="41"/>
-      <c r="I124" s="44"/>
-      <c r="J124" s="42"/>
-      <c r="K124" s="42"/>
-      <c r="L124" s="39"/>
-      <c r="M124" s="39"/>
-      <c r="N124" s="41"/>
-      <c r="O124" s="40"/>
-      <c r="S124" s="40"/>
-    </row>
-    <row r="125" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I124" s="39"/>
+      <c r="J124" s="41"/>
+      <c r="K124" s="44"/>
+      <c r="L124" s="42"/>
+      <c r="M124" s="42"/>
+      <c r="N124" s="39"/>
+      <c r="O124" s="39"/>
+      <c r="P124" s="41"/>
+      <c r="Q124" s="40"/>
+      <c r="U124" s="40"/>
+    </row>
+    <row r="125" spans="1:21" ht="16.5">
       <c r="A125" s="39"/>
-      <c r="B125" s="40"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="39"/>
-      <c r="D125" s="36"/>
-      <c r="E125" s="36"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="39"/>
+      <c r="D125" s="40"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="36"/>
       <c r="H125" s="41"/>
-      <c r="I125" s="44"/>
-      <c r="J125" s="42"/>
-      <c r="K125" s="42"/>
-      <c r="L125" s="39"/>
-      <c r="M125" s="39"/>
-      <c r="N125" s="41"/>
-      <c r="O125" s="40"/>
-      <c r="S125" s="40"/>
-    </row>
-    <row r="126" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I125" s="39"/>
+      <c r="J125" s="41"/>
+      <c r="K125" s="44"/>
+      <c r="L125" s="42"/>
+      <c r="M125" s="42"/>
+      <c r="N125" s="39"/>
+      <c r="O125" s="39"/>
+      <c r="P125" s="41"/>
+      <c r="Q125" s="40"/>
+      <c r="U125" s="40"/>
+    </row>
+    <row r="126" spans="1:21" ht="16.5">
       <c r="A126" s="39"/>
-      <c r="B126" s="40"/>
+      <c r="B126" s="39"/>
       <c r="C126" s="39"/>
-      <c r="D126" s="36"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="39"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="36"/>
       <c r="H126" s="41"/>
-      <c r="I126" s="44"/>
-      <c r="J126" s="42"/>
-      <c r="K126" s="42"/>
-      <c r="L126" s="39"/>
-      <c r="M126" s="39"/>
-      <c r="N126" s="41"/>
-      <c r="O126" s="40"/>
-      <c r="S126" s="40"/>
-    </row>
-    <row r="127" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I126" s="39"/>
+      <c r="J126" s="41"/>
+      <c r="K126" s="44"/>
+      <c r="L126" s="42"/>
+      <c r="M126" s="42"/>
+      <c r="N126" s="39"/>
+      <c r="O126" s="39"/>
+      <c r="P126" s="41"/>
+      <c r="Q126" s="40"/>
+      <c r="U126" s="40"/>
+    </row>
+    <row r="127" spans="1:21" ht="16.5">
       <c r="A127" s="39"/>
-      <c r="B127" s="40"/>
+      <c r="B127" s="39"/>
       <c r="C127" s="39"/>
-      <c r="D127" s="36"/>
-      <c r="E127" s="36"/>
-      <c r="F127" s="41"/>
-      <c r="G127" s="39"/>
+      <c r="D127" s="40"/>
+      <c r="E127" s="39"/>
+      <c r="F127" s="36"/>
+      <c r="G127" s="36"/>
       <c r="H127" s="41"/>
-      <c r="I127" s="44"/>
-      <c r="J127" s="42"/>
-      <c r="K127" s="42"/>
-      <c r="L127" s="39"/>
-      <c r="M127" s="39"/>
-      <c r="N127" s="41"/>
-      <c r="O127" s="40"/>
-      <c r="S127" s="40"/>
-    </row>
-    <row r="128" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I127" s="39"/>
+      <c r="J127" s="41"/>
+      <c r="K127" s="44"/>
+      <c r="L127" s="42"/>
+      <c r="M127" s="42"/>
+      <c r="N127" s="39"/>
+      <c r="O127" s="39"/>
+      <c r="P127" s="41"/>
+      <c r="Q127" s="40"/>
+      <c r="U127" s="40"/>
+    </row>
+    <row r="128" spans="1:21" ht="16.5">
       <c r="A128" s="39"/>
-      <c r="B128" s="40"/>
+      <c r="B128" s="39"/>
       <c r="C128" s="39"/>
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="41"/>
-      <c r="G128" s="39"/>
+      <c r="D128" s="40"/>
+      <c r="E128" s="39"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="36"/>
       <c r="H128" s="41"/>
-      <c r="I128" s="44"/>
-      <c r="J128" s="42"/>
-      <c r="K128" s="42"/>
-      <c r="L128" s="39"/>
-      <c r="M128" s="39"/>
-      <c r="N128" s="41"/>
-      <c r="O128" s="40"/>
-      <c r="S128" s="40"/>
-    </row>
-    <row r="129" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I128" s="39"/>
+      <c r="J128" s="41"/>
+      <c r="K128" s="44"/>
+      <c r="L128" s="42"/>
+      <c r="M128" s="42"/>
+      <c r="N128" s="39"/>
+      <c r="O128" s="39"/>
+      <c r="P128" s="41"/>
+      <c r="Q128" s="40"/>
+      <c r="U128" s="40"/>
+    </row>
+    <row r="129" spans="1:21" ht="16.5">
       <c r="A129" s="39"/>
-      <c r="B129" s="40"/>
+      <c r="B129" s="39"/>
       <c r="C129" s="39"/>
-      <c r="D129" s="36"/>
-      <c r="E129" s="36"/>
-      <c r="F129" s="41"/>
-      <c r="G129" s="39"/>
+      <c r="D129" s="40"/>
+      <c r="E129" s="39"/>
+      <c r="F129" s="36"/>
+      <c r="G129" s="36"/>
       <c r="H129" s="41"/>
-      <c r="I129" s="44"/>
-      <c r="J129" s="42"/>
-      <c r="K129" s="42"/>
-      <c r="L129" s="39"/>
-      <c r="M129" s="39"/>
-      <c r="N129" s="41"/>
-      <c r="O129" s="40"/>
-      <c r="S129" s="40"/>
-    </row>
-    <row r="130" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I129" s="39"/>
+      <c r="J129" s="41"/>
+      <c r="K129" s="44"/>
+      <c r="L129" s="42"/>
+      <c r="M129" s="42"/>
+      <c r="N129" s="39"/>
+      <c r="O129" s="39"/>
+      <c r="P129" s="41"/>
+      <c r="Q129" s="40"/>
+      <c r="U129" s="40"/>
+    </row>
+    <row r="130" spans="1:21" ht="16.5">
       <c r="A130" s="39"/>
-      <c r="B130" s="40"/>
+      <c r="B130" s="39"/>
       <c r="C130" s="39"/>
-      <c r="D130" s="36"/>
-      <c r="E130" s="36"/>
-      <c r="F130" s="41"/>
-      <c r="G130" s="39"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="39"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="36"/>
       <c r="H130" s="41"/>
-      <c r="I130" s="44"/>
-      <c r="J130" s="42"/>
-      <c r="K130" s="42"/>
-      <c r="L130" s="39"/>
-      <c r="M130" s="39"/>
-      <c r="N130" s="41"/>
-      <c r="O130" s="40"/>
-      <c r="S130" s="40"/>
-    </row>
-    <row r="131" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I130" s="39"/>
+      <c r="J130" s="41"/>
+      <c r="K130" s="44"/>
+      <c r="L130" s="42"/>
+      <c r="M130" s="42"/>
+      <c r="N130" s="39"/>
+      <c r="O130" s="39"/>
+      <c r="P130" s="41"/>
+      <c r="Q130" s="40"/>
+      <c r="U130" s="40"/>
+    </row>
+    <row r="131" spans="1:21" ht="16.5">
       <c r="A131" s="39"/>
-      <c r="B131" s="40"/>
+      <c r="B131" s="39"/>
       <c r="C131" s="39"/>
-      <c r="D131" s="36"/>
-      <c r="E131" s="36"/>
-      <c r="F131" s="41"/>
-      <c r="G131" s="39"/>
+      <c r="D131" s="40"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="39"/>
+      <c r="G131" s="36"/>
       <c r="H131" s="41"/>
-      <c r="I131" s="44"/>
-      <c r="J131" s="42"/>
-      <c r="K131" s="42"/>
-      <c r="L131" s="39"/>
-      <c r="M131" s="39"/>
-      <c r="N131" s="41"/>
-      <c r="O131" s="40"/>
-      <c r="S131" s="40"/>
-    </row>
-    <row r="132" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I131" s="39"/>
+      <c r="J131" s="41"/>
+      <c r="K131" s="44"/>
+      <c r="L131" s="42"/>
+      <c r="M131" s="42"/>
+      <c r="N131" s="39"/>
+      <c r="O131" s="39"/>
+      <c r="P131" s="41"/>
+      <c r="Q131" s="40"/>
+      <c r="U131" s="40"/>
+    </row>
+    <row r="132" spans="1:21" ht="16.5">
       <c r="A132" s="39"/>
-      <c r="B132" s="40"/>
+      <c r="B132" s="39"/>
       <c r="C132" s="39"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="36"/>
-      <c r="F132" s="41"/>
-      <c r="G132" s="39"/>
+      <c r="D132" s="40"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="39"/>
+      <c r="G132" s="36"/>
       <c r="H132" s="41"/>
-      <c r="I132" s="44"/>
-      <c r="J132" s="42"/>
-      <c r="K132" s="42"/>
-      <c r="L132" s="39"/>
-      <c r="M132" s="39"/>
-      <c r="N132" s="41"/>
-      <c r="O132" s="40"/>
-      <c r="S132" s="40"/>
-    </row>
-    <row r="133" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="I132" s="39"/>
+      <c r="J132" s="41"/>
+      <c r="K132" s="44"/>
+      <c r="L132" s="42"/>
+      <c r="M132" s="42"/>
+      <c r="N132" s="39"/>
+      <c r="O132" s="39"/>
+      <c r="P132" s="41"/>
+      <c r="Q132" s="40"/>
+      <c r="U132" s="40"/>
+    </row>
+    <row r="133" spans="1:21" ht="16.5">
       <c r="A133" s="39"/>
-      <c r="B133" s="40"/>
+      <c r="B133" s="39"/>
       <c r="C133" s="39"/>
-      <c r="D133" s="39"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="41"/>
-      <c r="G133" s="39"/>
+      <c r="D133" s="40"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39"/>
+      <c r="G133" s="36"/>
       <c r="H133" s="41"/>
-      <c r="I133" s="44"/>
-      <c r="J133" s="42"/>
-      <c r="K133" s="42"/>
+      <c r="I133" s="39"/>
+      <c r="J133" s="41"/>
+      <c r="K133" s="44"/>
       <c r="L133" s="39"/>
       <c r="M133" s="39"/>
-      <c r="N133" s="41"/>
-      <c r="O133" s="40"/>
-      <c r="S133" s="40"/>
-    </row>
-    <row r="134" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="N133" s="39"/>
+      <c r="O133" s="39"/>
+      <c r="P133" s="41"/>
+      <c r="Q133" s="40"/>
+      <c r="U133" s="40"/>
+    </row>
+    <row r="134" spans="1:21">
       <c r="A134" s="39"/>
-      <c r="B134" s="40"/>
+      <c r="B134" s="39"/>
       <c r="C134" s="39"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="36"/>
-      <c r="F134" s="41"/>
+      <c r="D134" s="40"/>
+      <c r="E134" s="39"/>
+      <c r="F134" s="39"/>
       <c r="G134" s="39"/>
       <c r="H134" s="41"/>
-      <c r="I134" s="44"/>
-      <c r="J134" s="39"/>
-      <c r="K134" s="39"/>
+      <c r="I134" s="39"/>
+      <c r="J134" s="41"/>
+      <c r="K134" s="44"/>
       <c r="L134" s="39"/>
       <c r="M134" s="39"/>
-      <c r="N134" s="41"/>
-      <c r="O134" s="40"/>
-      <c r="S134" s="40"/>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N134" s="39"/>
+      <c r="O134" s="39"/>
+      <c r="P134" s="41"/>
+      <c r="Q134" s="40"/>
+      <c r="U134" s="40"/>
+    </row>
+    <row r="135" spans="1:21">
       <c r="A135" s="39"/>
-      <c r="B135" s="40"/>
+      <c r="B135" s="39"/>
       <c r="C135" s="39"/>
-      <c r="D135" s="39"/>
+      <c r="D135" s="40"/>
       <c r="E135" s="39"/>
-      <c r="F135" s="41"/>
+      <c r="F135" s="39"/>
       <c r="G135" s="39"/>
       <c r="H135" s="41"/>
-      <c r="I135" s="44"/>
-      <c r="J135" s="39"/>
-      <c r="K135" s="39"/>
+      <c r="I135" s="39"/>
+      <c r="J135" s="41"/>
+      <c r="K135" s="44"/>
       <c r="L135" s="39"/>
       <c r="M135" s="39"/>
-      <c r="N135" s="41"/>
-      <c r="O135" s="40"/>
-      <c r="S135" s="40"/>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N135" s="39"/>
+      <c r="O135" s="39"/>
+      <c r="P135" s="41"/>
+      <c r="Q135" s="40"/>
+      <c r="U135" s="40"/>
+    </row>
+    <row r="136" spans="1:21">
       <c r="A136" s="39"/>
-      <c r="B136" s="40"/>
+      <c r="B136" s="39"/>
       <c r="C136" s="39"/>
-      <c r="D136" s="39"/>
+      <c r="D136" s="40"/>
       <c r="E136" s="39"/>
-      <c r="F136" s="41"/>
+      <c r="F136" s="39"/>
       <c r="G136" s="39"/>
       <c r="H136" s="41"/>
-      <c r="I136" s="44"/>
-      <c r="J136" s="39"/>
-      <c r="K136" s="39"/>
+      <c r="I136" s="39"/>
+      <c r="J136" s="41"/>
+      <c r="K136" s="44"/>
       <c r="L136" s="39"/>
       <c r="M136" s="39"/>
-      <c r="N136" s="41"/>
-      <c r="O136" s="40"/>
-      <c r="S136" s="40"/>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A137" s="39"/>
-      <c r="B137" s="40"/>
+      <c r="N136" s="39"/>
+      <c r="O136" s="39"/>
+      <c r="P136" s="41"/>
+      <c r="Q136" s="40"/>
+      <c r="U136" s="40"/>
+    </row>
+    <row r="137" spans="1:21">
+      <c r="B137" s="39"/>
       <c r="C137" s="39"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="39"/>
-      <c r="F137" s="41"/>
-      <c r="G137" s="39"/>
-      <c r="H137" s="41"/>
-      <c r="I137" s="44"/>
-      <c r="J137" s="39"/>
-      <c r="K137" s="39"/>
-      <c r="L137" s="39"/>
-      <c r="M137" s="39"/>
-      <c r="N137" s="41"/>
-      <c r="O137" s="40"/>
-      <c r="S137" s="40"/>
+    </row>
+    <row r="138" spans="1:21">
+      <c r="B138" s="39"/>
+      <c r="C138" s="39"/>
+    </row>
+    <row r="139" spans="1:21">
+      <c r="B139" s="39"/>
+      <c r="C139" s="39"/>
+    </row>
+    <row r="140" spans="1:21">
+      <c r="B140" s="39"/>
+      <c r="C140" s="39"/>
+    </row>
+    <row r="141" spans="1:21">
+      <c r="B141" s="39"/>
+      <c r="C141" s="39"/>
+    </row>
+    <row r="142" spans="1:21">
+      <c r="B142" s="39"/>
+      <c r="C142" s="39"/>
+    </row>
+    <row r="143" spans="1:21">
+      <c r="B143" s="39"/>
+      <c r="C143" s="39"/>
+    </row>
+    <row r="144" spans="1:21">
+      <c r="B144" s="39"/>
+      <c r="C144" s="39"/>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" s="39"/>
+      <c r="C145" s="39"/>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" s="39"/>
+      <c r="C146" s="39"/>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" s="39"/>
+      <c r="C147" s="39"/>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148" s="39"/>
+      <c r="C148" s="39"/>
+    </row>
+    <row r="149" spans="2:3">
+      <c r="B149" s="39"/>
+      <c r="C149" s="39"/>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150" s="39"/>
+      <c r="C150" s="39"/>
+    </row>
+    <row r="151" spans="2:3">
+      <c r="B151" s="39"/>
+      <c r="C151" s="39"/>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" s="39"/>
+      <c r="C152" s="39"/>
+    </row>
+    <row r="153" spans="2:3">
+      <c r="B153" s="39"/>
+      <c r="C153" s="39"/>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154" s="39"/>
+      <c r="C154" s="39"/>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155" s="39"/>
+      <c r="C155" s="39"/>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156" s="39"/>
+      <c r="C156" s="39"/>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="B157" s="39"/>
+      <c r="C157" s="39"/>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="B158" s="39"/>
+      <c r="C158" s="39"/>
+    </row>
+    <row r="159" spans="2:3">
+      <c r="B159" s="39"/>
+      <c r="C159" s="39"/>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="B160" s="39"/>
+      <c r="C160" s="39"/>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161" s="39"/>
+      <c r="C161" s="39"/>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" s="39"/>
+      <c r="C162" s="39"/>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="B163" s="39"/>
+      <c r="C163" s="39"/>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164" s="39"/>
+      <c r="C164" s="39"/>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" s="39"/>
+      <c r="C165" s="39"/>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166" s="39"/>
+      <c r="C166" s="39"/>
+    </row>
+    <row r="167" spans="2:3">
+      <c r="B167" s="39"/>
+      <c r="C167" s="39"/>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="B168" s="39"/>
+      <c r="C168" s="39"/>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="B169" s="39"/>
+      <c r="C169" s="39"/>
+    </row>
+    <row r="170" spans="2:3">
+      <c r="B170" s="39"/>
+      <c r="C170" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -4057,74 +4483,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="16.5">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="25"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -4135,7 +4561,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -4146,7 +4572,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -4157,7 +4583,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -4168,7 +4594,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -4179,7 +4605,7 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -4190,7 +4616,7 @@
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -4201,7 +4627,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -4212,7 +4638,7 @@
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -4223,7 +4649,7 @@
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -4234,7 +4660,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -4263,14 +4689,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4281,33 +4707,33 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" s="17" customFormat="1">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -4317,7 +4743,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -4327,7 +4753,7 @@
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -4337,7 +4763,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -4347,7 +4773,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -4357,7 +4783,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -4367,7 +4793,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -4377,7 +4803,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -4387,7 +4813,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -4397,7 +4823,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -4407,7 +4833,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -4417,7 +4843,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -4427,7 +4853,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -4437,7 +4863,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -4447,7 +4873,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -4457,7 +4883,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -4467,7 +4893,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -4477,7 +4903,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -4499,14 +4925,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="3" customWidth="1"/>
@@ -5342,119 +5768,119 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="L3" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="49.5">
       <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="J4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -5469,48 +5895,48 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="54" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="51">
+    <row r="6" spans="1:13" s="50" customFormat="1" ht="66">
+      <c r="A6" s="47">
         <v>2</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="H6" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="I6" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="J6" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="K6" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="M6" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" s="52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -5525,7 +5951,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -5559,14 +5985,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="3" customWidth="1"/>
@@ -6402,160 +6828,160 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="49.5">
       <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="I4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" s="50" customFormat="1" ht="66">
+      <c r="A5" s="47">
+        <v>2</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" s="54" customFormat="1" ht="66" x14ac:dyDescent="0.15">
-      <c r="A5" s="51">
-        <v>2</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="51" t="s">
+      <c r="J5" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="K5" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="M5" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" s="52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -6570,7 +6996,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -6603,14 +7029,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="3" customWidth="1"/>
@@ -7446,195 +7872,195 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="49.5">
       <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="66">
       <c r="A5" s="11">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" s="50" customFormat="1" ht="82.5">
+      <c r="A6" s="47">
+        <v>2</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="D6" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="E6" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="16" t="s">
+      <c r="F6" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" s="54" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="51">
-        <v>2</v>
-      </c>
-      <c r="B6" s="51" t="s">
+      <c r="G6" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="H6" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="51" t="s">
+      <c r="I6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="K6" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="M6" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" s="52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -7649,7 +8075,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>

--- a/VersionRecords/Version 5.1.2 20161129/版本Bug和特性计划及评审表v5.1.2_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.2 20161129/版本Bug和特性计划及评审表v5.1.2_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.2 20161129\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -344,12 +339,16 @@
     <t>金刚</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>周蓉/吴永余</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1172,17 +1171,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="29" customWidth="1"/>
@@ -1208,7 +1207,7 @@
     <col min="23" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16384" s="28" customFormat="1" ht="27">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16384" s="59" customFormat="1" ht="16.5">
       <c r="A2" s="47">
         <v>1</v>
       </c>
@@ -1311,10 +1310,18 @@
       <c r="M2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="55"/>
+      <c r="N2" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="52">
+        <v>42702</v>
+      </c>
+      <c r="Q2" s="55" t="s">
+        <v>22</v>
+      </c>
       <c r="R2" s="56"/>
       <c r="S2" s="56"/>
       <c r="T2" s="56"/>
@@ -17683,7 +17690,7 @@
       <c r="XFC2" s="58"/>
       <c r="XFD2" s="58"/>
     </row>
-    <row r="3" spans="1:16384" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16384" customFormat="1" ht="16.5">
       <c r="A3" s="47">
         <v>2</v>
       </c>
@@ -34100,7 +34107,7 @@
       <c r="XFC3" s="58"/>
       <c r="XFD3" s="58"/>
     </row>
-    <row r="4" spans="1:16384" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16384" customFormat="1" ht="16.5">
       <c r="A4" s="47">
         <v>3</v>
       </c>
@@ -50517,7 +50524,7 @@
       <c r="XFC4" s="58"/>
       <c r="XFD4" s="58"/>
     </row>
-    <row r="5" spans="1:16384" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16384" ht="16.5">
       <c r="A5" s="35"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
@@ -50540,7 +50547,7 @@
       <c r="T5" s="35"/>
       <c r="U5" s="36"/>
     </row>
-    <row r="6" spans="1:16384" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16384" ht="16.5">
       <c r="A6" s="35"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
@@ -50563,7 +50570,7 @@
       <c r="T6" s="35"/>
       <c r="U6" s="36"/>
     </row>
-    <row r="7" spans="1:16384" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16384" ht="16.5">
       <c r="A7" s="35"/>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
@@ -50586,7 +50593,7 @@
       <c r="T7" s="35"/>
       <c r="U7" s="36"/>
     </row>
-    <row r="8" spans="1:16384" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16384" ht="16.5">
       <c r="A8" s="35"/>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
@@ -50609,7 +50616,7 @@
       <c r="T8" s="35"/>
       <c r="U8" s="36"/>
     </row>
-    <row r="9" spans="1:16384" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16384" ht="16.5">
       <c r="A9" s="35"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
@@ -50632,7 +50639,7 @@
       <c r="T9" s="35"/>
       <c r="U9" s="36"/>
     </row>
-    <row r="10" spans="1:16384" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16384" ht="16.5">
       <c r="A10" s="35"/>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
@@ -50655,7 +50662,7 @@
       <c r="T10" s="35"/>
       <c r="U10" s="36"/>
     </row>
-    <row r="11" spans="1:16384" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16384" ht="16.5">
       <c r="A11" s="35"/>
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
@@ -50678,7 +50685,7 @@
       <c r="T11" s="35"/>
       <c r="U11" s="36"/>
     </row>
-    <row r="12" spans="1:16384" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16384" ht="16.5">
       <c r="A12" s="35"/>
       <c r="B12" s="45"/>
       <c r="C12" s="45"/>
@@ -50701,7 +50708,7 @@
       <c r="T12" s="35"/>
       <c r="U12" s="36"/>
     </row>
-    <row r="13" spans="1:16384" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16384" ht="16.5">
       <c r="A13" s="35"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -50724,7 +50731,7 @@
       <c r="T13" s="35"/>
       <c r="U13" s="36"/>
     </row>
-    <row r="14" spans="1:16384" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16384" ht="16.5">
       <c r="A14" s="35"/>
       <c r="B14" s="46"/>
       <c r="C14" s="46"/>
@@ -50747,7 +50754,7 @@
       <c r="T14" s="35"/>
       <c r="U14" s="36"/>
     </row>
-    <row r="15" spans="1:16384" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16384" ht="16.5">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -50770,7 +50777,7 @@
       <c r="T15" s="35"/>
       <c r="U15" s="36"/>
     </row>
-    <row r="16" spans="1:16384" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16384" ht="16.5">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -50793,7 +50800,7 @@
       <c r="T16" s="35"/>
       <c r="U16" s="36"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="16.5">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -50816,7 +50823,7 @@
       <c r="T17" s="35"/>
       <c r="U17" s="36"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="16.5">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -50839,7 +50846,7 @@
       <c r="T18" s="35"/>
       <c r="U18" s="36"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="16.5">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -50862,7 +50869,7 @@
       <c r="T19" s="35"/>
       <c r="U19" s="36"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="16.5">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -50885,7 +50892,7 @@
       <c r="T20" s="35"/>
       <c r="U20" s="36"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" ht="16.5">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -50908,7 +50915,7 @@
       <c r="T21" s="35"/>
       <c r="U21" s="36"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="16.5">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -50931,7 +50938,7 @@
       <c r="T22" s="35"/>
       <c r="U22" s="36"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="16.5">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -50954,7 +50961,7 @@
       <c r="T23" s="35"/>
       <c r="U23" s="36"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="16.5">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -50977,7 +50984,7 @@
       <c r="T24" s="35"/>
       <c r="U24" s="36"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="16.5">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -51000,7 +51007,7 @@
       <c r="T25" s="35"/>
       <c r="U25" s="36"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="16.5">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -51023,7 +51030,7 @@
       <c r="T26" s="35"/>
       <c r="U26" s="36"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -51046,7 +51053,7 @@
       <c r="T27" s="35"/>
       <c r="U27" s="36"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="16.5">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -51069,7 +51076,7 @@
       <c r="T28" s="35"/>
       <c r="U28" s="36"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="16.5">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -51092,7 +51099,7 @@
       <c r="T29" s="35"/>
       <c r="U29" s="36"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="16.5">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -51115,7 +51122,7 @@
       <c r="T30" s="35"/>
       <c r="U30" s="36"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="16.5">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -51138,7 +51145,7 @@
       <c r="T31" s="35"/>
       <c r="U31" s="36"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="16.5">
       <c r="A32" s="35"/>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -51161,7 +51168,7 @@
       <c r="T32" s="35"/>
       <c r="U32" s="36"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="16.5">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -51184,7 +51191,7 @@
       <c r="T33" s="35"/>
       <c r="U33" s="36"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -51207,7 +51214,7 @@
       <c r="T34" s="35"/>
       <c r="U34" s="36"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
@@ -51230,7 +51237,7 @@
       <c r="T35" s="35"/>
       <c r="U35" s="36"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="35"/>
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
@@ -51253,7 +51260,7 @@
       <c r="T36" s="35"/>
       <c r="U36" s="36"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
@@ -51276,7 +51283,7 @@
       <c r="T37" s="35"/>
       <c r="U37" s="36"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="35"/>
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
@@ -51299,7 +51306,7 @@
       <c r="T38" s="35"/>
       <c r="U38" s="36"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -51322,7 +51329,7 @@
       <c r="T39" s="35"/>
       <c r="U39" s="36"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
@@ -51345,7 +51352,7 @@
       <c r="T40" s="35"/>
       <c r="U40" s="36"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -51368,7 +51375,7 @@
       <c r="T41" s="35"/>
       <c r="U41" s="36"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="35"/>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -51391,7 +51398,7 @@
       <c r="T42" s="35"/>
       <c r="U42" s="36"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
@@ -51414,7 +51421,7 @@
       <c r="T43" s="35"/>
       <c r="U43" s="36"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="35"/>
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
@@ -51437,7 +51444,7 @@
       <c r="T44" s="35"/>
       <c r="U44" s="36"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="35"/>
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
@@ -51460,7 +51467,7 @@
       <c r="T45" s="35"/>
       <c r="U45" s="36"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="35"/>
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
@@ -51483,7 +51490,7 @@
       <c r="T46" s="35"/>
       <c r="U46" s="36"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="35"/>
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
@@ -51506,7 +51513,7 @@
       <c r="T47" s="35"/>
       <c r="U47" s="36"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="35"/>
       <c r="B48" s="35"/>
       <c r="C48" s="35"/>
@@ -51529,7 +51536,7 @@
       <c r="T48" s="35"/>
       <c r="U48" s="36"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="35"/>
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
@@ -51552,7 +51559,7 @@
       <c r="T49" s="35"/>
       <c r="U49" s="36"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="35"/>
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
@@ -51575,7 +51582,7 @@
       <c r="T50" s="35"/>
       <c r="U50" s="36"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="35"/>
       <c r="B51" s="35"/>
       <c r="C51" s="35"/>
@@ -51598,7 +51605,7 @@
       <c r="T51" s="35"/>
       <c r="U51" s="36"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="35"/>
       <c r="B52" s="35"/>
       <c r="C52" s="35"/>
@@ -51621,7 +51628,7 @@
       <c r="T52" s="35"/>
       <c r="U52" s="36"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="35"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
@@ -51644,7 +51651,7 @@
       <c r="T53" s="35"/>
       <c r="U53" s="36"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="35"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
@@ -51667,7 +51674,7 @@
       <c r="T54" s="35"/>
       <c r="U54" s="36"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="35"/>
       <c r="B55" s="35"/>
       <c r="C55" s="35"/>
@@ -51690,7 +51697,7 @@
       <c r="T55" s="35"/>
       <c r="U55" s="36"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="35"/>
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
@@ -51713,7 +51720,7 @@
       <c r="T56" s="35"/>
       <c r="U56" s="36"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="35"/>
       <c r="B57" s="35"/>
       <c r="C57" s="35"/>
@@ -51736,7 +51743,7 @@
       <c r="T57" s="35"/>
       <c r="U57" s="36"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="35"/>
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
@@ -51759,7 +51766,7 @@
       <c r="T58" s="35"/>
       <c r="U58" s="36"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="35"/>
       <c r="B59" s="35"/>
       <c r="C59" s="35"/>
@@ -51782,7 +51789,7 @@
       <c r="T59" s="35"/>
       <c r="U59" s="36"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="35"/>
       <c r="B60" s="35"/>
       <c r="C60" s="35"/>
@@ -51805,7 +51812,7 @@
       <c r="T60" s="35"/>
       <c r="U60" s="36"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="35"/>
       <c r="B61" s="35"/>
       <c r="C61" s="35"/>
@@ -51828,7 +51835,7 @@
       <c r="T61" s="35"/>
       <c r="U61" s="36"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="35"/>
       <c r="B62" s="35"/>
       <c r="C62" s="35"/>
@@ -51851,7 +51858,7 @@
       <c r="T62" s="35"/>
       <c r="U62" s="36"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="35"/>
       <c r="B63" s="35"/>
       <c r="C63" s="35"/>
@@ -51874,7 +51881,7 @@
       <c r="T63" s="35"/>
       <c r="U63" s="36"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="35"/>
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
@@ -51897,7 +51904,7 @@
       <c r="T64" s="35"/>
       <c r="U64" s="36"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="35"/>
       <c r="B65" s="35"/>
       <c r="C65" s="35"/>
@@ -51920,7 +51927,7 @@
       <c r="T65" s="35"/>
       <c r="U65" s="36"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="35"/>
       <c r="B66" s="35"/>
       <c r="C66" s="35"/>
@@ -51943,7 +51950,7 @@
       <c r="T66" s="35"/>
       <c r="U66" s="36"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="35"/>
       <c r="B67" s="35"/>
       <c r="C67" s="35"/>
@@ -51966,7 +51973,7 @@
       <c r="T67" s="35"/>
       <c r="U67" s="36"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="35"/>
       <c r="B68" s="35"/>
       <c r="C68" s="35"/>
@@ -51989,7 +51996,7 @@
       <c r="T68" s="35"/>
       <c r="U68" s="36"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="35"/>
       <c r="B69" s="35"/>
       <c r="C69" s="35"/>
@@ -52012,7 +52019,7 @@
       <c r="T69" s="35"/>
       <c r="U69" s="36"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="35"/>
       <c r="B70" s="35"/>
       <c r="C70" s="35"/>
@@ -52035,7 +52042,7 @@
       <c r="T70" s="35"/>
       <c r="U70" s="36"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="35"/>
       <c r="B71" s="35"/>
       <c r="C71" s="35"/>
@@ -52058,7 +52065,7 @@
       <c r="T71" s="35"/>
       <c r="U71" s="36"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="35"/>
       <c r="B72" s="35"/>
       <c r="C72" s="35"/>
@@ -52081,7 +52088,7 @@
       <c r="T72" s="35"/>
       <c r="U72" s="36"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5">
       <c r="A73" s="35"/>
       <c r="B73" s="35"/>
       <c r="C73" s="35"/>
@@ -52104,7 +52111,7 @@
       <c r="T73" s="35"/>
       <c r="U73" s="36"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16.5">
       <c r="A74" s="35"/>
       <c r="B74" s="35"/>
       <c r="C74" s="35"/>
@@ -52127,7 +52134,7 @@
       <c r="T74" s="35"/>
       <c r="U74" s="36"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="16.5">
       <c r="A75" s="35"/>
       <c r="B75" s="35"/>
       <c r="C75" s="35"/>
@@ -52150,7 +52157,7 @@
       <c r="T75" s="35"/>
       <c r="U75" s="36"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="16.5">
       <c r="A76" s="35"/>
       <c r="B76" s="35"/>
       <c r="C76" s="35"/>
@@ -52173,7 +52180,7 @@
       <c r="T76" s="35"/>
       <c r="U76" s="36"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="16.5">
       <c r="A77" s="35"/>
       <c r="B77" s="35"/>
       <c r="C77" s="35"/>
@@ -52196,7 +52203,7 @@
       <c r="T77" s="35"/>
       <c r="U77" s="36"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="16.5">
       <c r="A78" s="35"/>
       <c r="B78" s="35"/>
       <c r="C78" s="35"/>
@@ -52219,7 +52226,7 @@
       <c r="T78" s="35"/>
       <c r="U78" s="36"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="16.5">
       <c r="A79" s="35"/>
       <c r="B79" s="35"/>
       <c r="C79" s="35"/>
@@ -52242,7 +52249,7 @@
       <c r="T79" s="35"/>
       <c r="U79" s="36"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="16.5">
       <c r="A80" s="35"/>
       <c r="B80" s="35"/>
       <c r="C80" s="35"/>
@@ -52265,7 +52272,7 @@
       <c r="T80" s="35"/>
       <c r="U80" s="36"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="16.5">
       <c r="A81" s="35"/>
       <c r="B81" s="35"/>
       <c r="C81" s="35"/>
@@ -52288,7 +52295,7 @@
       <c r="T81" s="35"/>
       <c r="U81" s="36"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="16.5">
       <c r="A82" s="35"/>
       <c r="B82" s="35"/>
       <c r="C82" s="35"/>
@@ -52311,7 +52318,7 @@
       <c r="T82" s="35"/>
       <c r="U82" s="36"/>
     </row>
-    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" ht="16.5">
       <c r="A83" s="35"/>
       <c r="B83" s="35"/>
       <c r="C83" s="35"/>
@@ -52334,7 +52341,7 @@
       <c r="T83" s="35"/>
       <c r="U83" s="36"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" ht="16.5">
       <c r="A84" s="35"/>
       <c r="B84" s="35"/>
       <c r="C84" s="35"/>
@@ -52357,7 +52364,7 @@
       <c r="T84" s="35"/>
       <c r="U84" s="36"/>
     </row>
-    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="16.5">
       <c r="A85" s="35"/>
       <c r="B85" s="35"/>
       <c r="C85" s="35"/>
@@ -52380,7 +52387,7 @@
       <c r="T85" s="35"/>
       <c r="U85" s="36"/>
     </row>
-    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" ht="16.5">
       <c r="A86" s="35"/>
       <c r="B86" s="35"/>
       <c r="C86" s="35"/>
@@ -52403,7 +52410,7 @@
       <c r="T86" s="35"/>
       <c r="U86" s="36"/>
     </row>
-    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" ht="16.5">
       <c r="A87" s="35"/>
       <c r="B87" s="35"/>
       <c r="C87" s="35"/>
@@ -52426,7 +52433,7 @@
       <c r="T87" s="35"/>
       <c r="U87" s="36"/>
     </row>
-    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" ht="16.5">
       <c r="A88" s="35"/>
       <c r="B88" s="35"/>
       <c r="C88" s="35"/>
@@ -52449,7 +52456,7 @@
       <c r="T88" s="35"/>
       <c r="U88" s="36"/>
     </row>
-    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" ht="16.5">
       <c r="A89" s="35"/>
       <c r="B89" s="35"/>
       <c r="C89" s="35"/>
@@ -52472,7 +52479,7 @@
       <c r="T89" s="35"/>
       <c r="U89" s="36"/>
     </row>
-    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" ht="16.5">
       <c r="A90" s="35"/>
       <c r="B90" s="35"/>
       <c r="C90" s="35"/>
@@ -52495,7 +52502,7 @@
       <c r="T90" s="35"/>
       <c r="U90" s="36"/>
     </row>
-    <row r="91" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" ht="16.5">
       <c r="A91" s="35"/>
       <c r="B91" s="35"/>
       <c r="C91" s="35"/>
@@ -52518,7 +52525,7 @@
       <c r="T91" s="35"/>
       <c r="U91" s="36"/>
     </row>
-    <row r="92" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" ht="16.5">
       <c r="A92" s="35"/>
       <c r="B92" s="35"/>
       <c r="C92" s="35"/>
@@ -52541,7 +52548,7 @@
       <c r="T92" s="35"/>
       <c r="U92" s="36"/>
     </row>
-    <row r="93" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" ht="16.5">
       <c r="A93" s="35"/>
       <c r="B93" s="35"/>
       <c r="C93" s="35"/>
@@ -52564,7 +52571,7 @@
       <c r="T93" s="35"/>
       <c r="U93" s="36"/>
     </row>
-    <row r="94" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" ht="16.5">
       <c r="A94" s="35"/>
       <c r="B94" s="35"/>
       <c r="C94" s="35"/>
@@ -52587,7 +52594,7 @@
       <c r="T94" s="35"/>
       <c r="U94" s="36"/>
     </row>
-    <row r="95" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" ht="16.5">
       <c r="A95" s="35"/>
       <c r="B95" s="35"/>
       <c r="C95" s="35"/>
@@ -52610,7 +52617,7 @@
       <c r="T95" s="35"/>
       <c r="U95" s="36"/>
     </row>
-    <row r="96" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" ht="16.5">
       <c r="A96" s="35"/>
       <c r="B96" s="35"/>
       <c r="C96" s="35"/>
@@ -52633,7 +52640,7 @@
       <c r="T96" s="35"/>
       <c r="U96" s="36"/>
     </row>
-    <row r="97" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" ht="16.5">
       <c r="A97" s="35"/>
       <c r="B97" s="35"/>
       <c r="C97" s="35"/>
@@ -52656,7 +52663,7 @@
       <c r="T97" s="35"/>
       <c r="U97" s="36"/>
     </row>
-    <row r="98" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" ht="16.5">
       <c r="A98" s="35"/>
       <c r="B98" s="35"/>
       <c r="C98" s="35"/>
@@ -52679,7 +52686,7 @@
       <c r="T98" s="35"/>
       <c r="U98" s="36"/>
     </row>
-    <row r="99" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" ht="16.5">
       <c r="A99" s="35"/>
       <c r="B99" s="35"/>
       <c r="C99" s="35"/>
@@ -52702,7 +52709,7 @@
       <c r="T99" s="35"/>
       <c r="U99" s="36"/>
     </row>
-    <row r="100" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" ht="16.5">
       <c r="A100" s="35"/>
       <c r="B100" s="35"/>
       <c r="C100" s="35"/>
@@ -52725,7 +52732,7 @@
       <c r="T100" s="35"/>
       <c r="U100" s="36"/>
     </row>
-    <row r="101" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" ht="16.5">
       <c r="A101" s="35"/>
       <c r="B101" s="35"/>
       <c r="C101" s="35"/>
@@ -52748,7 +52755,7 @@
       <c r="T101" s="35"/>
       <c r="U101" s="36"/>
     </row>
-    <row r="102" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" ht="16.5">
       <c r="A102" s="35"/>
       <c r="B102" s="35"/>
       <c r="C102" s="35"/>
@@ -52768,7 +52775,7 @@
       <c r="Q102" s="36"/>
       <c r="U102" s="36"/>
     </row>
-    <row r="103" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" ht="16.5">
       <c r="A103" s="35"/>
       <c r="B103" s="35"/>
       <c r="C103" s="35"/>
@@ -52788,7 +52795,7 @@
       <c r="Q103" s="36"/>
       <c r="U103" s="36"/>
     </row>
-    <row r="104" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" ht="16.5">
       <c r="A104" s="35"/>
       <c r="B104" s="35"/>
       <c r="C104" s="35"/>
@@ -52808,7 +52815,7 @@
       <c r="Q104" s="36"/>
       <c r="U104" s="36"/>
     </row>
-    <row r="105" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" ht="16.5">
       <c r="A105" s="35"/>
       <c r="B105" s="35"/>
       <c r="C105" s="35"/>
@@ -52828,7 +52835,7 @@
       <c r="Q105" s="36"/>
       <c r="U105" s="36"/>
     </row>
-    <row r="106" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" ht="16.5">
       <c r="A106" s="35"/>
       <c r="B106" s="35"/>
       <c r="C106" s="35"/>
@@ -52848,7 +52855,7 @@
       <c r="Q106" s="36"/>
       <c r="U106" s="36"/>
     </row>
-    <row r="107" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" ht="16.5">
       <c r="A107" s="35"/>
       <c r="B107" s="35"/>
       <c r="C107" s="35"/>
@@ -52868,7 +52875,7 @@
       <c r="Q107" s="36"/>
       <c r="U107" s="36"/>
     </row>
-    <row r="108" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" ht="16.5">
       <c r="A108" s="35"/>
       <c r="B108" s="35"/>
       <c r="C108" s="35"/>
@@ -52888,7 +52895,7 @@
       <c r="Q108" s="36"/>
       <c r="U108" s="36"/>
     </row>
-    <row r="109" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" ht="16.5">
       <c r="A109" s="35"/>
       <c r="B109" s="35"/>
       <c r="C109" s="35"/>
@@ -52908,7 +52915,7 @@
       <c r="Q109" s="36"/>
       <c r="U109" s="36"/>
     </row>
-    <row r="110" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" ht="16.5">
       <c r="A110" s="35"/>
       <c r="B110" s="35"/>
       <c r="C110" s="35"/>
@@ -52928,7 +52935,7 @@
       <c r="Q110" s="36"/>
       <c r="U110" s="36"/>
     </row>
-    <row r="111" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" ht="16.5">
       <c r="A111" s="35"/>
       <c r="B111" s="35"/>
       <c r="C111" s="35"/>
@@ -52948,7 +52955,7 @@
       <c r="Q111" s="36"/>
       <c r="U111" s="36"/>
     </row>
-    <row r="112" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" ht="16.5">
       <c r="A112" s="35"/>
       <c r="B112" s="35"/>
       <c r="C112" s="35"/>
@@ -52968,7 +52975,7 @@
       <c r="Q112" s="36"/>
       <c r="U112" s="36"/>
     </row>
-    <row r="113" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" ht="16.5">
       <c r="A113" s="35"/>
       <c r="B113" s="35"/>
       <c r="C113" s="35"/>
@@ -52988,7 +52995,7 @@
       <c r="Q113" s="36"/>
       <c r="U113" s="36"/>
     </row>
-    <row r="114" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" ht="16.5">
       <c r="A114" s="35"/>
       <c r="B114" s="35"/>
       <c r="C114" s="35"/>
@@ -53008,7 +53015,7 @@
       <c r="Q114" s="36"/>
       <c r="U114" s="36"/>
     </row>
-    <row r="115" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" ht="16.5">
       <c r="A115" s="35"/>
       <c r="B115" s="35"/>
       <c r="C115" s="35"/>
@@ -53028,7 +53035,7 @@
       <c r="Q115" s="36"/>
       <c r="U115" s="36"/>
     </row>
-    <row r="116" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" ht="16.5">
       <c r="A116" s="35"/>
       <c r="B116" s="35"/>
       <c r="C116" s="35"/>
@@ -53048,7 +53055,7 @@
       <c r="Q116" s="36"/>
       <c r="U116" s="36"/>
     </row>
-    <row r="117" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" ht="16.5">
       <c r="A117" s="35"/>
       <c r="B117" s="35"/>
       <c r="C117" s="35"/>
@@ -53068,7 +53075,7 @@
       <c r="Q117" s="36"/>
       <c r="U117" s="36"/>
     </row>
-    <row r="118" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" ht="16.5">
       <c r="A118" s="35"/>
       <c r="B118" s="35"/>
       <c r="C118" s="35"/>
@@ -53088,7 +53095,7 @@
       <c r="Q118" s="36"/>
       <c r="U118" s="36"/>
     </row>
-    <row r="119" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" ht="16.5">
       <c r="A119" s="35"/>
       <c r="B119" s="35"/>
       <c r="C119" s="35"/>
@@ -53108,7 +53115,7 @@
       <c r="Q119" s="36"/>
       <c r="U119" s="36"/>
     </row>
-    <row r="120" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" ht="16.5">
       <c r="A120" s="35"/>
       <c r="B120" s="35"/>
       <c r="C120" s="35"/>
@@ -53128,7 +53135,7 @@
       <c r="Q120" s="36"/>
       <c r="U120" s="36"/>
     </row>
-    <row r="121" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" ht="16.5">
       <c r="A121" s="35"/>
       <c r="B121" s="35"/>
       <c r="C121" s="35"/>
@@ -53148,7 +53155,7 @@
       <c r="Q121" s="36"/>
       <c r="U121" s="36"/>
     </row>
-    <row r="122" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" ht="16.5">
       <c r="A122" s="35"/>
       <c r="B122" s="35"/>
       <c r="C122" s="35"/>
@@ -53168,7 +53175,7 @@
       <c r="Q122" s="36"/>
       <c r="U122" s="36"/>
     </row>
-    <row r="123" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" ht="16.5">
       <c r="A123" s="35"/>
       <c r="B123" s="35"/>
       <c r="C123" s="35"/>
@@ -53188,7 +53195,7 @@
       <c r="Q123" s="36"/>
       <c r="U123" s="36"/>
     </row>
-    <row r="124" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" ht="16.5">
       <c r="A124" s="35"/>
       <c r="B124" s="35"/>
       <c r="C124" s="35"/>
@@ -53208,7 +53215,7 @@
       <c r="Q124" s="36"/>
       <c r="U124" s="36"/>
     </row>
-    <row r="125" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21" ht="16.5">
       <c r="A125" s="35"/>
       <c r="B125" s="35"/>
       <c r="C125" s="35"/>
@@ -53228,7 +53235,7 @@
       <c r="Q125" s="36"/>
       <c r="U125" s="36"/>
     </row>
-    <row r="126" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21" ht="16.5">
       <c r="A126" s="35"/>
       <c r="B126" s="35"/>
       <c r="C126" s="35"/>
@@ -53248,7 +53255,7 @@
       <c r="Q126" s="36"/>
       <c r="U126" s="36"/>
     </row>
-    <row r="127" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21" ht="16.5">
       <c r="A127" s="35"/>
       <c r="B127" s="35"/>
       <c r="C127" s="35"/>
@@ -53268,7 +53275,7 @@
       <c r="Q127" s="36"/>
       <c r="U127" s="36"/>
     </row>
-    <row r="128" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21" ht="16.5">
       <c r="A128" s="35"/>
       <c r="B128" s="35"/>
       <c r="C128" s="35"/>
@@ -53288,7 +53295,7 @@
       <c r="Q128" s="36"/>
       <c r="U128" s="36"/>
     </row>
-    <row r="129" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" ht="16.5">
       <c r="A129" s="35"/>
       <c r="B129" s="35"/>
       <c r="C129" s="35"/>
@@ -53308,7 +53315,7 @@
       <c r="Q129" s="36"/>
       <c r="U129" s="36"/>
     </row>
-    <row r="130" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21" ht="16.5">
       <c r="A130" s="35"/>
       <c r="B130" s="35"/>
       <c r="C130" s="35"/>
@@ -53328,7 +53335,7 @@
       <c r="Q130" s="36"/>
       <c r="U130" s="36"/>
     </row>
-    <row r="131" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21" ht="16.5">
       <c r="A131" s="35"/>
       <c r="B131" s="35"/>
       <c r="C131" s="35"/>
@@ -53348,7 +53355,7 @@
       <c r="Q131" s="36"/>
       <c r="U131" s="36"/>
     </row>
-    <row r="132" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" ht="16.5">
       <c r="A132" s="35"/>
       <c r="B132" s="35"/>
       <c r="C132" s="35"/>
@@ -53368,7 +53375,7 @@
       <c r="Q132" s="36"/>
       <c r="U132" s="36"/>
     </row>
-    <row r="133" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21" ht="16.5">
       <c r="A133" s="35"/>
       <c r="B133" s="35"/>
       <c r="C133" s="35"/>
@@ -53388,7 +53395,7 @@
       <c r="Q133" s="36"/>
       <c r="U133" s="36"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21">
       <c r="A134" s="35"/>
       <c r="B134" s="35"/>
       <c r="C134" s="35"/>
@@ -53408,7 +53415,7 @@
       <c r="Q134" s="36"/>
       <c r="U134" s="36"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21">
       <c r="A135" s="35"/>
       <c r="B135" s="35"/>
       <c r="C135" s="35"/>
@@ -53428,7 +53435,7 @@
       <c r="Q135" s="36"/>
       <c r="U135" s="36"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21">
       <c r="A136" s="35"/>
       <c r="B136" s="35"/>
       <c r="C136" s="35"/>
@@ -53448,139 +53455,139 @@
       <c r="Q136" s="36"/>
       <c r="U136" s="36"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21">
       <c r="B137" s="35"/>
       <c r="C137" s="35"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21">
       <c r="B138" s="35"/>
       <c r="C138" s="35"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21">
       <c r="B139" s="35"/>
       <c r="C139" s="35"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21">
       <c r="B140" s="35"/>
       <c r="C140" s="35"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21">
       <c r="B141" s="35"/>
       <c r="C141" s="35"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21">
       <c r="B142" s="35"/>
       <c r="C142" s="35"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21">
       <c r="B143" s="35"/>
       <c r="C143" s="35"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21">
       <c r="B144" s="35"/>
       <c r="C144" s="35"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:3">
       <c r="B145" s="35"/>
       <c r="C145" s="35"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:3">
       <c r="B146" s="35"/>
       <c r="C146" s="35"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:3">
       <c r="B147" s="35"/>
       <c r="C147" s="35"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:3">
       <c r="B148" s="35"/>
       <c r="C148" s="35"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:3">
       <c r="B149" s="35"/>
       <c r="C149" s="35"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:3">
       <c r="B150" s="35"/>
       <c r="C150" s="35"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:3">
       <c r="B151" s="35"/>
       <c r="C151" s="35"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:3">
       <c r="B152" s="35"/>
       <c r="C152" s="35"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:3">
       <c r="B153" s="35"/>
       <c r="C153" s="35"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:3">
       <c r="B154" s="35"/>
       <c r="C154" s="35"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:3">
       <c r="B155" s="35"/>
       <c r="C155" s="35"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:3">
       <c r="B156" s="35"/>
       <c r="C156" s="35"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:3">
       <c r="B157" s="35"/>
       <c r="C157" s="35"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:3">
       <c r="B158" s="35"/>
       <c r="C158" s="35"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:3">
       <c r="B159" s="35"/>
       <c r="C159" s="35"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:3">
       <c r="B160" s="35"/>
       <c r="C160" s="35"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:3">
       <c r="B161" s="35"/>
       <c r="C161" s="35"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:3">
       <c r="B162" s="35"/>
       <c r="C162" s="35"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:3">
       <c r="B163" s="35"/>
       <c r="C163" s="35"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:3">
       <c r="B164" s="35"/>
       <c r="C164" s="35"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:3">
       <c r="B165" s="35"/>
       <c r="C165" s="35"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:3">
       <c r="B166" s="35"/>
       <c r="C166" s="35"/>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:3">
       <c r="B167" s="35"/>
       <c r="C167" s="35"/>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:3">
       <c r="B168" s="35"/>
       <c r="C168" s="35"/>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:3">
       <c r="B169" s="35"/>
       <c r="C169" s="35"/>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:3">
       <c r="B170" s="35"/>
       <c r="C170" s="35"/>
     </row>
@@ -53615,21 +53622,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="61" t="s">
         <v>27</v>
       </c>
@@ -53642,7 +53649,7 @@
       <c r="H1" s="61"/>
       <c r="I1" s="62"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -53653,7 +53660,7 @@
       <c r="H2" s="63"/>
       <c r="I2" s="64"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
@@ -53682,7 +53689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="25"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -53693,7 +53700,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -53704,7 +53711,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -53715,7 +53722,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -53726,7 +53733,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -53737,7 +53744,7 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -53748,7 +53755,7 @@
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -53759,7 +53766,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -53770,7 +53777,7 @@
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -53781,7 +53788,7 @@
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -53792,7 +53799,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -53821,14 +53828,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -53839,7 +53846,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="21" t="s">
         <v>36</v>
       </c>
@@ -53865,7 +53872,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="17" customFormat="1">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -53875,7 +53882,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -53885,7 +53892,7 @@
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -53895,7 +53902,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -53905,7 +53912,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -53915,7 +53922,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -53925,7 +53932,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -53935,7 +53942,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -53945,7 +53952,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -53955,7 +53962,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -53965,7 +53972,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -53975,7 +53982,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -53985,7 +53992,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -53995,7 +54002,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -54005,7 +54012,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -54015,7 +54022,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -54025,7 +54032,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -54035,7 +54042,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -54057,14 +54064,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="3" customWidth="1"/>
@@ -54900,7 +54907,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="61" t="s">
         <v>44</v>
       </c>
@@ -54917,7 +54924,7 @@
       <c r="L1" s="61"/>
       <c r="M1" s="62"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -54932,7 +54939,7 @@
       <c r="L2" s="63"/>
       <c r="M2" s="64"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
@@ -54973,7 +54980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="49.5">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -55012,7 +55019,7 @@
       </c>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -55027,7 +55034,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="43" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="43" customFormat="1" ht="66">
       <c r="A6" s="40">
         <v>2</v>
       </c>
@@ -55068,7 +55075,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -55083,7 +55090,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -55117,14 +55124,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="3" customWidth="1"/>
@@ -55960,7 +55967,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="61" t="s">
         <v>44</v>
       </c>
@@ -55977,7 +55984,7 @@
       <c r="L1" s="61"/>
       <c r="M1" s="62"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -55992,7 +55999,7 @@
       <c r="L2" s="63"/>
       <c r="M2" s="64"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
@@ -56033,7 +56040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="49.5">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -56072,7 +56079,7 @@
       </c>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" s="43" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="43" customFormat="1" ht="66">
       <c r="A5" s="40">
         <v>2</v>
       </c>
@@ -56113,7 +56120,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -56128,7 +56135,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -56161,14 +56168,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="3" customWidth="1"/>
@@ -57004,7 +57011,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="61" t="s">
         <v>44</v>
       </c>
@@ -57021,7 +57028,7 @@
       <c r="L1" s="61"/>
       <c r="M1" s="62"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -57036,7 +57043,7 @@
       <c r="L2" s="63"/>
       <c r="M2" s="64"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
@@ -57077,7 +57084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="49.5">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -57114,7 +57121,7 @@
       </c>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="66">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -57151,7 +57158,7 @@
       </c>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="43" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="43" customFormat="1" ht="82.5">
       <c r="A6" s="40">
         <v>2</v>
       </c>
@@ -57192,7 +57199,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -57207,7 +57214,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
